--- a/data/flyemroi.xlsx
+++ b/data/flyemroi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\flywalk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CCB20B-0EA4-4AF7-9C2C-C809450D1C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833ED96B-97A1-4603-A3AD-78BE6F6565C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="19260" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="19260" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="114_List_all_images_included_in" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="roi_hierarchy" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'114_List_all_images_included_in'!$A$1:$AA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'114_List_all_images_included_in'!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="558">
   <si>
     <t>id</t>
   </si>
@@ -1698,43 +1698,11 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Cin</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Cout</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Gin</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Gout</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>inner-sc-cell</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>out-sc-cell</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>inner-sc-neuron</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>out-sc-neuron</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>inner-sc-glia</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>out-sc-glia</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -2716,11 +2684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2734,20 +2702,15 @@
     <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.25" style="3" customWidth="1"/>
-    <col min="18" max="23" width="7.875" customWidth="1"/>
-    <col min="24" max="24" width="1.125" style="3" customWidth="1"/>
-    <col min="25" max="26" width="11.125" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
+    <col min="11" max="11" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.25" style="3" customWidth="1"/>
+    <col min="13" max="14" width="7.875" customWidth="1"/>
+    <col min="15" max="15" width="1.125" style="3" customWidth="1"/>
+    <col min="16" max="17" width="11.125" customWidth="1"/>
+    <col min="18" max="18" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -2773,58 +2736,31 @@
         <v>550</v>
       </c>
       <c r="I1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K1" t="s">
         <v>551</v>
       </c>
-      <c r="L1" t="s">
-        <v>552</v>
-      </c>
       <c r="M1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N1" t="s">
-        <v>551</v>
-      </c>
-      <c r="O1" t="s">
+        <v>555</v>
+      </c>
+      <c r="P1" t="s">
         <v>556</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>557</v>
       </c>
       <c r="R1" t="s">
-        <v>558</v>
-      </c>
-      <c r="S1" t="s">
-        <v>559</v>
-      </c>
-      <c r="T1" t="s">
-        <v>560</v>
-      </c>
-      <c r="U1" t="s">
-        <v>561</v>
-      </c>
-      <c r="V1" t="s">
-        <v>562</v>
-      </c>
-      <c r="W1" t="s">
-        <v>563</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2850,60 +2786,32 @@
         <v>4042</v>
       </c>
       <c r="I2">
-        <v>16058</v>
+        <v>5607</v>
       </c>
       <c r="J2">
-        <v>460933</v>
+        <v>6556</v>
       </c>
       <c r="K2">
-        <f>I2-J2</f>
-        <v>-444875</v>
-      </c>
-      <c r="L2">
-        <v>5607</v>
+        <f t="shared" ref="K2:K33" si="0">I2-J2</f>
+        <v>-949</v>
       </c>
       <c r="M2">
-        <v>6556</v>
+        <v>5267</v>
       </c>
       <c r="N2">
-        <f>L2-M2</f>
-        <v>-949</v>
-      </c>
-      <c r="O2">
-        <v>10451</v>
+        <v>39128</v>
       </c>
       <c r="P2">
-        <v>454377</v>
-      </c>
-      <c r="R2">
-        <v>7525</v>
-      </c>
-      <c r="S2">
-        <v>39546</v>
-      </c>
-      <c r="T2">
-        <v>5267</v>
-      </c>
-      <c r="U2">
-        <v>39128</v>
-      </c>
-      <c r="V2">
-        <v>2258</v>
-      </c>
-      <c r="W2">
-        <v>418</v>
-      </c>
-      <c r="Y2">
         <v>174704</v>
       </c>
-      <c r="Z2">
+      <c r="Q2">
         <v>2027044</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="R2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2929,60 +2837,32 @@
         <v>1370</v>
       </c>
       <c r="I3">
-        <v>9671</v>
+        <v>4013</v>
       </c>
       <c r="J3">
-        <v>161219</v>
+        <v>4625</v>
       </c>
       <c r="K3">
-        <f>I3-J3</f>
-        <v>-151548</v>
-      </c>
-      <c r="L3">
-        <v>4013</v>
+        <f t="shared" si="0"/>
+        <v>-612</v>
       </c>
       <c r="M3">
-        <v>4625</v>
+        <v>3560</v>
       </c>
       <c r="N3">
-        <f>L3-M3</f>
-        <v>-612</v>
-      </c>
-      <c r="O3">
-        <v>5658</v>
+        <v>16398</v>
       </c>
       <c r="P3">
-        <v>156594</v>
-      </c>
-      <c r="R3">
-        <v>4580</v>
-      </c>
-      <c r="S3">
-        <v>16506</v>
-      </c>
-      <c r="T3">
-        <v>3560</v>
-      </c>
-      <c r="U3">
-        <v>16398</v>
-      </c>
-      <c r="V3">
-        <v>1020</v>
-      </c>
-      <c r="W3">
-        <v>108</v>
-      </c>
-      <c r="Y3">
         <v>50724</v>
       </c>
-      <c r="Z3">
+      <c r="Q3">
         <v>662031</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="R3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3002,60 +2882,32 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J4">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <f>I4-J4</f>
-        <v>-201</v>
-      </c>
-      <c r="L4">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>-26</v>
       </c>
       <c r="M4">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="N4">
-        <f>L4-M4</f>
-        <v>-26</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
+        <v>485</v>
       </c>
       <c r="P4">
-        <v>181</v>
-      </c>
-      <c r="R4">
-        <v>53</v>
-      </c>
-      <c r="S4">
-        <v>485</v>
-      </c>
-      <c r="T4">
-        <v>53</v>
-      </c>
-      <c r="U4">
-        <v>485</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
         <v>134</v>
       </c>
-      <c r="Z4">
+      <c r="Q4">
         <v>22709</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="R4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3078,60 +2930,32 @@
         <v>404</v>
       </c>
       <c r="I5">
-        <v>2379</v>
+        <v>953</v>
       </c>
       <c r="J5">
-        <v>41273</v>
+        <v>1310</v>
       </c>
       <c r="K5">
-        <f>I5-J5</f>
-        <v>-38894</v>
-      </c>
-      <c r="L5">
-        <v>953</v>
+        <f t="shared" si="0"/>
+        <v>-357</v>
       </c>
       <c r="M5">
-        <v>1310</v>
+        <v>846</v>
       </c>
       <c r="N5">
-        <f>L5-M5</f>
-        <v>-357</v>
-      </c>
-      <c r="O5">
-        <v>1426</v>
+        <v>10437</v>
       </c>
       <c r="P5">
-        <v>39963</v>
-      </c>
-      <c r="R5">
-        <v>1147</v>
-      </c>
-      <c r="S5">
-        <v>10507</v>
-      </c>
-      <c r="T5">
-        <v>846</v>
-      </c>
-      <c r="U5">
-        <v>10437</v>
-      </c>
-      <c r="V5">
-        <v>301</v>
-      </c>
-      <c r="W5">
-        <v>70</v>
-      </c>
-      <c r="Y5">
         <v>20144</v>
       </c>
-      <c r="Z5">
+      <c r="Q5">
         <v>563504</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="R5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3157,60 +2981,32 @@
         <v>2408</v>
       </c>
       <c r="I6">
-        <v>11531</v>
+        <v>3956</v>
       </c>
       <c r="J6">
-        <v>218536</v>
+        <v>4380</v>
       </c>
       <c r="K6">
-        <f>I6-J6</f>
-        <v>-207005</v>
-      </c>
-      <c r="L6">
-        <v>3956</v>
+        <f t="shared" si="0"/>
+        <v>-424</v>
       </c>
       <c r="M6">
-        <v>4380</v>
+        <v>3824</v>
       </c>
       <c r="N6">
-        <f>L6-M6</f>
-        <v>-424</v>
-      </c>
-      <c r="O6">
-        <v>7575</v>
+        <v>29942</v>
       </c>
       <c r="P6">
-        <v>214156</v>
-      </c>
-      <c r="R6">
-        <v>4972</v>
-      </c>
-      <c r="S6">
-        <v>30186</v>
-      </c>
-      <c r="T6">
-        <v>3824</v>
-      </c>
-      <c r="U6">
-        <v>29942</v>
-      </c>
-      <c r="V6">
-        <v>1148</v>
-      </c>
-      <c r="W6">
-        <v>244</v>
-      </c>
-      <c r="Y6">
         <v>132613</v>
       </c>
-      <c r="Z6">
+      <c r="Q6">
         <v>1473595</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="R6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3230,60 +3026,32 @@
         <v>30</v>
       </c>
       <c r="I7">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="J7">
-        <v>2492</v>
+        <v>227</v>
       </c>
       <c r="K7">
-        <f>I7-J7</f>
-        <v>-2249</v>
-      </c>
-      <c r="L7">
-        <v>108</v>
+        <f t="shared" si="0"/>
+        <v>-119</v>
       </c>
       <c r="M7">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="N7">
-        <f>L7-M7</f>
-        <v>-119</v>
-      </c>
-      <c r="O7">
-        <v>135</v>
+        <v>1333</v>
       </c>
       <c r="P7">
-        <v>2265</v>
-      </c>
-      <c r="R7">
-        <v>100</v>
-      </c>
-      <c r="S7">
-        <v>1347</v>
-      </c>
-      <c r="T7">
-        <v>92</v>
-      </c>
-      <c r="U7">
-        <v>1333</v>
-      </c>
-      <c r="V7">
-        <v>8</v>
-      </c>
-      <c r="W7">
-        <v>14</v>
-      </c>
-      <c r="Y7">
         <v>1951</v>
       </c>
-      <c r="Z7">
+      <c r="Q7">
         <v>83599</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="R7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3309,60 +3077,32 @@
         <v>7001</v>
       </c>
       <c r="I8">
-        <v>36270</v>
+        <v>4950</v>
       </c>
       <c r="J8">
-        <v>866954</v>
+        <v>5297</v>
       </c>
       <c r="K8">
-        <f>I8-J8</f>
-        <v>-830684</v>
-      </c>
-      <c r="L8">
-        <v>4950</v>
+        <f t="shared" si="0"/>
+        <v>-347</v>
       </c>
       <c r="M8">
-        <v>5297</v>
+        <v>4666</v>
       </c>
       <c r="N8">
-        <f>L8-M8</f>
-        <v>-347</v>
-      </c>
-      <c r="O8">
-        <v>31320</v>
+        <v>24049</v>
       </c>
       <c r="P8">
-        <v>861657</v>
-      </c>
-      <c r="R8">
-        <v>11552</v>
-      </c>
-      <c r="S8">
-        <v>24871</v>
-      </c>
-      <c r="T8">
-        <v>4666</v>
-      </c>
-      <c r="U8">
-        <v>24049</v>
-      </c>
-      <c r="V8">
-        <v>6886</v>
-      </c>
-      <c r="W8">
-        <v>822</v>
-      </c>
-      <c r="Y8">
         <v>427479</v>
       </c>
-      <c r="Z8">
+      <c r="Q8">
         <v>1362692</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="R8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3388,60 +3128,32 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="J9">
-        <v>907</v>
+        <v>316</v>
       </c>
       <c r="K9">
-        <f>I9-J9</f>
-        <v>-770</v>
-      </c>
-      <c r="L9">
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>-207</v>
       </c>
       <c r="M9">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="N9">
-        <f>L9-M9</f>
-        <v>-207</v>
-      </c>
-      <c r="O9">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="P9">
-        <v>591</v>
-      </c>
-      <c r="R9">
-        <v>69</v>
-      </c>
-      <c r="S9">
-        <v>176</v>
-      </c>
-      <c r="T9">
-        <v>66</v>
-      </c>
-      <c r="U9">
-        <v>173</v>
-      </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-      <c r="W9">
-        <v>3</v>
-      </c>
-      <c r="Y9">
         <v>269</v>
       </c>
-      <c r="Z9">
+      <c r="Q9">
         <v>4221</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="R9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3461,60 +3173,32 @@
         <v>67</v>
       </c>
       <c r="I10">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="J10">
-        <v>3897</v>
+        <v>187</v>
       </c>
       <c r="K10">
-        <f>I10-J10</f>
-        <v>-3671</v>
-      </c>
-      <c r="L10">
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>-102</v>
       </c>
       <c r="M10">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="N10">
-        <f>L10-M10</f>
-        <v>-102</v>
-      </c>
-      <c r="O10">
-        <v>141</v>
+        <v>1478</v>
       </c>
       <c r="P10">
-        <v>3710</v>
-      </c>
-      <c r="R10">
-        <v>90</v>
-      </c>
-      <c r="S10">
-        <v>1494</v>
-      </c>
-      <c r="T10">
-        <v>78</v>
-      </c>
-      <c r="U10">
-        <v>1478</v>
-      </c>
-      <c r="V10">
-        <v>12</v>
-      </c>
-      <c r="W10">
-        <v>16</v>
-      </c>
-      <c r="Y10">
         <v>2822</v>
       </c>
-      <c r="Z10">
+      <c r="Q10">
         <v>79279</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="R10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3540,60 +3224,32 @@
         <v>3240</v>
       </c>
       <c r="I11">
-        <v>14761</v>
+        <v>3818</v>
       </c>
       <c r="J11">
-        <v>402189</v>
+        <v>4604</v>
       </c>
       <c r="K11">
-        <f>I11-J11</f>
-        <v>-387428</v>
-      </c>
-      <c r="L11">
-        <v>3818</v>
+        <f t="shared" si="0"/>
+        <v>-786</v>
       </c>
       <c r="M11">
-        <v>4604</v>
+        <v>3599</v>
       </c>
       <c r="N11">
-        <f>L11-M11</f>
-        <v>-786</v>
-      </c>
-      <c r="O11">
-        <v>10943</v>
+        <v>25092</v>
       </c>
       <c r="P11">
-        <v>397585</v>
-      </c>
-      <c r="R11">
-        <v>6277</v>
-      </c>
-      <c r="S11">
-        <v>25393</v>
-      </c>
-      <c r="T11">
-        <v>3599</v>
-      </c>
-      <c r="U11">
-        <v>25092</v>
-      </c>
-      <c r="V11">
-        <v>2678</v>
-      </c>
-      <c r="W11">
-        <v>301</v>
-      </c>
-      <c r="Y11">
         <v>180717</v>
       </c>
-      <c r="Z11">
+      <c r="Q11">
         <v>1116422</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="R11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3613,60 +3269,32 @@
         <v>29</v>
       </c>
       <c r="I12">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="J12">
-        <v>1998</v>
+        <v>125</v>
       </c>
       <c r="K12">
-        <f>I12-J12</f>
-        <v>-1881</v>
-      </c>
-      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>-73</v>
+      </c>
+      <c r="M12">
         <v>52</v>
       </c>
-      <c r="M12">
-        <v>125</v>
-      </c>
       <c r="N12">
-        <f>L12-M12</f>
-        <v>-73</v>
-      </c>
-      <c r="O12">
-        <v>65</v>
+        <v>1123</v>
       </c>
       <c r="P12">
-        <v>1873</v>
-      </c>
-      <c r="R12">
-        <v>64</v>
-      </c>
-      <c r="S12">
-        <v>1139</v>
-      </c>
-      <c r="T12">
-        <v>52</v>
-      </c>
-      <c r="U12">
-        <v>1123</v>
-      </c>
-      <c r="V12">
-        <v>12</v>
-      </c>
-      <c r="W12">
-        <v>16</v>
-      </c>
-      <c r="Y12">
         <v>1611</v>
       </c>
-      <c r="Z12">
+      <c r="Q12">
         <v>59795</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="R12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3686,60 +3314,32 @@
         <v>1072</v>
       </c>
       <c r="I13">
-        <v>1544</v>
+        <v>1116</v>
       </c>
       <c r="J13">
-        <v>9548</v>
+        <v>1704</v>
       </c>
       <c r="K13">
-        <f>I13-J13</f>
-        <v>-8004</v>
-      </c>
-      <c r="L13">
-        <v>1116</v>
+        <f t="shared" si="0"/>
+        <v>-588</v>
       </c>
       <c r="M13">
-        <v>1704</v>
+        <v>794</v>
       </c>
       <c r="N13">
-        <f>L13-M13</f>
-        <v>-588</v>
-      </c>
-      <c r="O13">
-        <v>428</v>
+        <v>8604</v>
       </c>
       <c r="P13">
-        <v>7844</v>
-      </c>
-      <c r="R13">
-        <v>863</v>
-      </c>
-      <c r="S13">
-        <v>8669</v>
-      </c>
-      <c r="T13">
-        <v>794</v>
-      </c>
-      <c r="U13">
-        <v>8604</v>
-      </c>
-      <c r="V13">
-        <v>69</v>
-      </c>
-      <c r="W13">
-        <v>65</v>
-      </c>
-      <c r="Y13">
         <v>2976</v>
       </c>
-      <c r="Z13">
+      <c r="Q13">
         <v>429052</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="R13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3759,60 +3359,32 @@
         <v>44</v>
       </c>
       <c r="I14">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="J14">
-        <v>3665</v>
+        <v>157</v>
       </c>
       <c r="K14">
-        <f>I14-J14</f>
-        <v>-3547</v>
-      </c>
-      <c r="L14">
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>-79</v>
       </c>
       <c r="M14">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="N14">
-        <f>L14-M14</f>
-        <v>-79</v>
-      </c>
-      <c r="O14">
-        <v>40</v>
+        <v>1350</v>
       </c>
       <c r="P14">
-        <v>3508</v>
-      </c>
-      <c r="R14">
-        <v>71</v>
-      </c>
-      <c r="S14">
-        <v>1362</v>
-      </c>
-      <c r="T14">
-        <v>60</v>
-      </c>
-      <c r="U14">
-        <v>1350</v>
-      </c>
-      <c r="V14">
-        <v>11</v>
-      </c>
-      <c r="W14">
-        <v>12</v>
-      </c>
-      <c r="Y14">
         <v>2210</v>
       </c>
-      <c r="Z14">
+      <c r="Q14">
         <v>78063</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="R14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3832,60 +3404,32 @@
         <v>37</v>
       </c>
       <c r="I15">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J15">
-        <v>2354</v>
+        <v>104</v>
       </c>
       <c r="K15">
-        <f>I15-J15</f>
-        <v>-2284</v>
-      </c>
-      <c r="L15">
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>-49</v>
       </c>
       <c r="M15">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="N15">
-        <f>L15-M15</f>
-        <v>-49</v>
-      </c>
-      <c r="O15">
-        <v>15</v>
+        <v>1059</v>
       </c>
       <c r="P15">
-        <v>2250</v>
-      </c>
-      <c r="R15">
-        <v>57</v>
-      </c>
-      <c r="S15">
-        <v>1065</v>
-      </c>
-      <c r="T15">
-        <v>51</v>
-      </c>
-      <c r="U15">
-        <v>1059</v>
-      </c>
-      <c r="V15">
-        <v>6</v>
-      </c>
-      <c r="W15">
-        <v>6</v>
-      </c>
-      <c r="Y15">
         <v>1790</v>
       </c>
-      <c r="Z15">
+      <c r="Q15">
         <v>60837</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="R15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3908,60 +3452,32 @@
         <v>2281</v>
       </c>
       <c r="I16">
-        <v>15887</v>
+        <v>4625</v>
       </c>
       <c r="J16">
-        <v>115027</v>
+        <v>4966</v>
       </c>
       <c r="K16">
-        <f>I16-J16</f>
-        <v>-99140</v>
-      </c>
-      <c r="L16">
-        <v>4625</v>
+        <f t="shared" si="0"/>
+        <v>-341</v>
       </c>
       <c r="M16">
-        <v>4966</v>
+        <v>4401</v>
       </c>
       <c r="N16">
-        <f>L16-M16</f>
-        <v>-341</v>
-      </c>
-      <c r="O16">
-        <v>11262</v>
+        <v>4017</v>
       </c>
       <c r="P16">
-        <v>110061</v>
-      </c>
-      <c r="R16">
-        <v>9290</v>
-      </c>
-      <c r="S16">
-        <v>4086</v>
-      </c>
-      <c r="T16">
-        <v>4401</v>
-      </c>
-      <c r="U16">
-        <v>4017</v>
-      </c>
-      <c r="V16">
-        <v>4889</v>
-      </c>
-      <c r="W16">
-        <v>69</v>
-      </c>
-      <c r="Y16">
         <v>139202</v>
       </c>
-      <c r="Z16">
+      <c r="Q16">
         <v>237344</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="R16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3984,60 +3500,32 @@
         <v>7115</v>
       </c>
       <c r="I17">
-        <v>32626</v>
+        <v>5190</v>
       </c>
       <c r="J17">
-        <v>320559</v>
+        <v>5640</v>
       </c>
       <c r="K17">
-        <f>I17-J17</f>
-        <v>-287933</v>
-      </c>
-      <c r="L17">
-        <v>5190</v>
+        <f t="shared" si="0"/>
+        <v>-450</v>
       </c>
       <c r="M17">
-        <v>5640</v>
+        <v>5023</v>
       </c>
       <c r="N17">
-        <f>L17-M17</f>
-        <v>-450</v>
-      </c>
-      <c r="O17">
-        <v>27436</v>
+        <v>9712</v>
       </c>
       <c r="P17">
-        <v>314919</v>
-      </c>
-      <c r="R17">
-        <v>14851</v>
-      </c>
-      <c r="S17">
-        <v>9887</v>
-      </c>
-      <c r="T17">
-        <v>5023</v>
-      </c>
-      <c r="U17">
-        <v>9712</v>
-      </c>
-      <c r="V17">
-        <v>9828</v>
-      </c>
-      <c r="W17">
-        <v>175</v>
-      </c>
-      <c r="Y17">
         <v>437706</v>
       </c>
-      <c r="Z17">
+      <c r="Q17">
         <v>650189</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="R17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4057,60 +3545,32 @@
         <v>36</v>
       </c>
       <c r="I18">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="J18">
-        <v>2842</v>
+        <v>841</v>
       </c>
       <c r="K18">
-        <f>I18-J18</f>
-        <v>-2202</v>
-      </c>
-      <c r="L18">
-        <v>520</v>
+        <f t="shared" si="0"/>
+        <v>-321</v>
       </c>
       <c r="M18">
-        <v>841</v>
+        <v>455</v>
       </c>
       <c r="N18">
-        <f>L18-M18</f>
-        <v>-321</v>
-      </c>
-      <c r="O18">
-        <v>120</v>
+        <v>4410</v>
       </c>
       <c r="P18">
-        <v>2001</v>
-      </c>
-      <c r="R18">
-        <v>471</v>
-      </c>
-      <c r="S18">
-        <v>4446</v>
-      </c>
-      <c r="T18">
-        <v>455</v>
-      </c>
-      <c r="U18">
-        <v>4410</v>
-      </c>
-      <c r="V18">
-        <v>16</v>
-      </c>
-      <c r="W18">
-        <v>36</v>
-      </c>
-      <c r="Y18">
         <v>2185</v>
       </c>
-      <c r="Z18">
+      <c r="Q18">
         <v>239825</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="R18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4133,60 +3593,32 @@
         <v>5196</v>
       </c>
       <c r="I19">
-        <v>18915</v>
+        <v>4449</v>
       </c>
       <c r="J19">
-        <v>525947</v>
+        <v>5190</v>
       </c>
       <c r="K19">
-        <f>I19-J19</f>
-        <v>-507032</v>
-      </c>
-      <c r="L19">
-        <v>4449</v>
+        <f t="shared" si="0"/>
+        <v>-741</v>
       </c>
       <c r="M19">
-        <v>5190</v>
+        <v>4153</v>
       </c>
       <c r="N19">
-        <f>L19-M19</f>
-        <v>-741</v>
-      </c>
-      <c r="O19">
-        <v>14466</v>
+        <v>21504</v>
       </c>
       <c r="P19">
-        <v>520757</v>
-      </c>
-      <c r="R19">
-        <v>7816</v>
-      </c>
-      <c r="S19">
-        <v>22040</v>
-      </c>
-      <c r="T19">
-        <v>4153</v>
-      </c>
-      <c r="U19">
-        <v>21504</v>
-      </c>
-      <c r="V19">
-        <v>3663</v>
-      </c>
-      <c r="W19">
-        <v>536</v>
-      </c>
-      <c r="Y19">
         <v>217391</v>
       </c>
-      <c r="Z19">
+      <c r="Q19">
         <v>1238135</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="R19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4212,60 +3644,32 @@
         <v>17314</v>
       </c>
       <c r="I20">
-        <v>107532</v>
+        <v>23015</v>
       </c>
       <c r="J20">
-        <v>1902845</v>
+        <v>23846</v>
       </c>
       <c r="K20">
-        <f>I20-J20</f>
-        <v>-1795313</v>
-      </c>
-      <c r="L20">
-        <v>23015</v>
+        <f t="shared" si="0"/>
+        <v>-831</v>
       </c>
       <c r="M20">
-        <v>23846</v>
+        <v>22089</v>
       </c>
       <c r="N20">
-        <f>L20-M20</f>
-        <v>-831</v>
-      </c>
-      <c r="O20">
-        <v>84517</v>
+        <v>9517</v>
       </c>
       <c r="P20">
-        <v>1878999</v>
-      </c>
-      <c r="R20">
-        <v>47599</v>
-      </c>
-      <c r="S20">
-        <v>9586</v>
-      </c>
-      <c r="T20">
-        <v>22089</v>
-      </c>
-      <c r="U20">
-        <v>9517</v>
-      </c>
-      <c r="V20">
-        <v>25510</v>
-      </c>
-      <c r="W20">
-        <v>69</v>
-      </c>
-      <c r="Y20">
         <v>698066</v>
       </c>
-      <c r="Z20">
+      <c r="Q20">
         <v>513762</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="R20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4291,60 +3695,32 @@
         <v>319</v>
       </c>
       <c r="I21">
-        <v>7208</v>
+        <v>1822</v>
       </c>
       <c r="J21">
-        <v>11932</v>
+        <v>1970</v>
       </c>
       <c r="K21">
-        <f>I21-J21</f>
-        <v>-4724</v>
-      </c>
-      <c r="L21">
-        <v>1822</v>
+        <f t="shared" si="0"/>
+        <v>-148</v>
       </c>
       <c r="M21">
-        <v>1970</v>
+        <v>1713</v>
       </c>
       <c r="N21">
-        <f>L21-M21</f>
-        <v>-148</v>
-      </c>
-      <c r="O21">
-        <v>5386</v>
+        <v>2747</v>
       </c>
       <c r="P21">
-        <v>9962</v>
-      </c>
-      <c r="R21">
-        <v>2413</v>
-      </c>
-      <c r="S21">
-        <v>2802</v>
-      </c>
-      <c r="T21">
-        <v>1713</v>
-      </c>
-      <c r="U21">
-        <v>2747</v>
-      </c>
-      <c r="V21">
-        <v>700</v>
-      </c>
-      <c r="W21">
-        <v>55</v>
-      </c>
-      <c r="Y21">
         <v>33511</v>
       </c>
-      <c r="Z21">
+      <c r="Q21">
         <v>92066</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="R21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4364,60 +3740,32 @@
         <v>681</v>
       </c>
       <c r="I22">
-        <v>1384</v>
+        <v>1106</v>
       </c>
       <c r="J22">
-        <v>6247</v>
+        <v>1703</v>
       </c>
       <c r="K22">
-        <f>I22-J22</f>
-        <v>-4863</v>
-      </c>
-      <c r="L22">
-        <v>1106</v>
+        <f t="shared" si="0"/>
+        <v>-597</v>
       </c>
       <c r="M22">
-        <v>1703</v>
+        <v>815</v>
       </c>
       <c r="N22">
-        <f>L22-M22</f>
-        <v>-597</v>
-      </c>
-      <c r="O22">
-        <v>278</v>
+        <v>7409</v>
       </c>
       <c r="P22">
-        <v>4544</v>
-      </c>
-      <c r="R22">
-        <v>848</v>
-      </c>
-      <c r="S22">
-        <v>7443</v>
-      </c>
-      <c r="T22">
-        <v>815</v>
-      </c>
-      <c r="U22">
-        <v>7409</v>
-      </c>
-      <c r="V22">
-        <v>33</v>
-      </c>
-      <c r="W22">
-        <v>34</v>
-      </c>
-      <c r="Y22">
         <v>3047</v>
       </c>
-      <c r="Z22">
+      <c r="Q22">
         <v>474281</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="R22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4443,60 +3791,32 @@
         <v>352</v>
       </c>
       <c r="I23">
-        <v>2564</v>
+        <v>1217</v>
       </c>
       <c r="J23">
-        <v>32366</v>
+        <v>1351</v>
       </c>
       <c r="K23">
-        <f>I23-J23</f>
-        <v>-29802</v>
-      </c>
-      <c r="L23">
-        <v>1217</v>
+        <f t="shared" si="0"/>
+        <v>-134</v>
       </c>
       <c r="M23">
-        <v>1351</v>
+        <v>1025</v>
       </c>
       <c r="N23">
-        <f>L23-M23</f>
-        <v>-134</v>
-      </c>
-      <c r="O23">
-        <v>1347</v>
+        <v>5174</v>
       </c>
       <c r="P23">
-        <v>31015</v>
-      </c>
-      <c r="R23">
-        <v>1285</v>
-      </c>
-      <c r="S23">
-        <v>5224</v>
-      </c>
-      <c r="T23">
-        <v>1025</v>
-      </c>
-      <c r="U23">
-        <v>5174</v>
-      </c>
-      <c r="V23">
-        <v>260</v>
-      </c>
-      <c r="W23">
-        <v>50</v>
-      </c>
-      <c r="Y23">
         <v>10198</v>
       </c>
-      <c r="Z23">
+      <c r="Q23">
         <v>169350</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="R23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4516,60 +3836,32 @@
         <v>77</v>
       </c>
       <c r="I24">
-        <v>443</v>
+        <v>236</v>
       </c>
       <c r="J24">
-        <v>2963</v>
+        <v>269</v>
       </c>
       <c r="K24">
-        <f>I24-J24</f>
-        <v>-2520</v>
-      </c>
-      <c r="L24">
-        <v>236</v>
+        <f t="shared" si="0"/>
+        <v>-33</v>
       </c>
       <c r="M24">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="N24">
-        <f>L24-M24</f>
-        <v>-33</v>
-      </c>
-      <c r="O24">
-        <v>207</v>
+        <v>1589</v>
       </c>
       <c r="P24">
-        <v>2694</v>
-      </c>
-      <c r="R24">
-        <v>348</v>
-      </c>
-      <c r="S24">
-        <v>1610</v>
-      </c>
-      <c r="T24">
-        <v>221</v>
-      </c>
-      <c r="U24">
-        <v>1589</v>
-      </c>
-      <c r="V24">
-        <v>127</v>
-      </c>
-      <c r="W24">
-        <v>21</v>
-      </c>
-      <c r="Y24">
         <v>5919</v>
       </c>
-      <c r="Z24">
+      <c r="Q24">
         <v>60475</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="R24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4595,60 +3887,32 @@
         <v>135</v>
       </c>
       <c r="I25">
-        <v>1124</v>
+        <v>689</v>
       </c>
       <c r="J25">
-        <v>6062</v>
+        <v>806</v>
       </c>
       <c r="K25">
-        <f>I25-J25</f>
-        <v>-4938</v>
-      </c>
-      <c r="L25">
-        <v>689</v>
+        <f t="shared" si="0"/>
+        <v>-117</v>
       </c>
       <c r="M25">
-        <v>806</v>
+        <v>649</v>
       </c>
       <c r="N25">
-        <f>L25-M25</f>
-        <v>-117</v>
-      </c>
-      <c r="O25">
-        <v>435</v>
+        <v>105</v>
       </c>
       <c r="P25">
-        <v>5256</v>
-      </c>
-      <c r="R25">
-        <v>757</v>
-      </c>
-      <c r="S25">
-        <v>106</v>
-      </c>
-      <c r="T25">
-        <v>649</v>
-      </c>
-      <c r="U25">
-        <v>105</v>
-      </c>
-      <c r="V25">
-        <v>108</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
         <v>4879</v>
       </c>
-      <c r="Z25">
+      <c r="Q25">
         <v>4298</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="R25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4668,60 +3932,32 @@
         <v>49</v>
       </c>
       <c r="I26">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="J26">
-        <v>2991</v>
+        <v>134</v>
       </c>
       <c r="K26">
-        <f>I26-J26</f>
-        <v>-2858</v>
-      </c>
-      <c r="L26">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>-54</v>
       </c>
       <c r="M26">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="N26">
-        <f>L26-M26</f>
-        <v>-54</v>
-      </c>
-      <c r="O26">
-        <v>53</v>
+        <v>1285</v>
       </c>
       <c r="P26">
-        <v>2857</v>
-      </c>
-      <c r="R26">
-        <v>78</v>
-      </c>
-      <c r="S26">
-        <v>1299</v>
-      </c>
-      <c r="T26">
-        <v>66</v>
-      </c>
-      <c r="U26">
-        <v>1285</v>
-      </c>
-      <c r="V26">
-        <v>12</v>
-      </c>
-      <c r="W26">
-        <v>14</v>
-      </c>
-      <c r="Y26">
         <v>2175</v>
       </c>
-      <c r="Z26">
+      <c r="Q26">
         <v>75228</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="R26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4741,60 +3977,32 @@
         <v>795</v>
       </c>
       <c r="I27">
-        <v>1309</v>
+        <v>829</v>
       </c>
       <c r="J27">
-        <v>10871</v>
+        <v>1253</v>
       </c>
       <c r="K27">
-        <f>I27-J27</f>
-        <v>-9562</v>
-      </c>
-      <c r="L27">
-        <v>829</v>
+        <f t="shared" si="0"/>
+        <v>-424</v>
       </c>
       <c r="M27">
-        <v>1253</v>
+        <v>590</v>
       </c>
       <c r="N27">
-        <f>L27-M27</f>
-        <v>-424</v>
-      </c>
-      <c r="O27">
-        <v>480</v>
+        <v>4879</v>
       </c>
       <c r="P27">
-        <v>9618</v>
-      </c>
-      <c r="R27">
-        <v>670</v>
-      </c>
-      <c r="S27">
-        <v>4927</v>
-      </c>
-      <c r="T27">
-        <v>590</v>
-      </c>
-      <c r="U27">
-        <v>4879</v>
-      </c>
-      <c r="V27">
-        <v>80</v>
-      </c>
-      <c r="W27">
-        <v>48</v>
-      </c>
-      <c r="Y27">
         <v>4030</v>
       </c>
-      <c r="Z27">
+      <c r="Q27">
         <v>294994</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="R27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4820,60 +4028,32 @@
         <v>1041</v>
       </c>
       <c r="I28">
-        <v>4836</v>
+        <v>2112</v>
       </c>
       <c r="J28">
-        <v>37150</v>
+        <v>2292</v>
       </c>
       <c r="K28">
-        <f>I28-J28</f>
-        <v>-32314</v>
-      </c>
-      <c r="L28">
-        <v>2112</v>
+        <f t="shared" si="0"/>
+        <v>-180</v>
       </c>
       <c r="M28">
-        <v>2292</v>
+        <v>2088</v>
       </c>
       <c r="N28">
-        <f>L28-M28</f>
-        <v>-180</v>
-      </c>
-      <c r="O28">
-        <v>2724</v>
+        <v>14795</v>
       </c>
       <c r="P28">
-        <v>34858</v>
-      </c>
-      <c r="R28">
-        <v>2388</v>
-      </c>
-      <c r="S28">
-        <v>14803</v>
-      </c>
-      <c r="T28">
-        <v>2088</v>
-      </c>
-      <c r="U28">
-        <v>14795</v>
-      </c>
-      <c r="V28">
-        <v>300</v>
-      </c>
-      <c r="W28">
-        <v>8</v>
-      </c>
-      <c r="Y28">
         <v>55330</v>
       </c>
-      <c r="Z28">
+      <c r="Q28">
         <v>614184</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="R28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4896,60 +4076,32 @@
         <v>2245</v>
       </c>
       <c r="I29">
-        <v>13570</v>
+        <v>4457</v>
       </c>
       <c r="J29">
-        <v>237910</v>
+        <v>4931</v>
       </c>
       <c r="K29">
-        <f>I29-J29</f>
-        <v>-224340</v>
-      </c>
-      <c r="L29">
-        <v>4457</v>
+        <f t="shared" si="0"/>
+        <v>-474</v>
       </c>
       <c r="M29">
-        <v>4931</v>
+        <v>3934</v>
       </c>
       <c r="N29">
-        <f>L29-M29</f>
-        <v>-474</v>
-      </c>
-      <c r="O29">
-        <v>9113</v>
+        <v>14328</v>
       </c>
       <c r="P29">
-        <v>232979</v>
-      </c>
-      <c r="R29">
-        <v>5940</v>
-      </c>
-      <c r="S29">
-        <v>14459</v>
-      </c>
-      <c r="T29">
-        <v>3934</v>
-      </c>
-      <c r="U29">
-        <v>14328</v>
-      </c>
-      <c r="V29">
-        <v>2006</v>
-      </c>
-      <c r="W29">
-        <v>131</v>
-      </c>
-      <c r="Y29">
         <v>101130</v>
       </c>
-      <c r="Z29">
+      <c r="Q29">
         <v>599589</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="R29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4969,60 +4121,32 @@
         <v>32</v>
       </c>
       <c r="I30">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="J30">
-        <v>2821</v>
+        <v>106</v>
       </c>
       <c r="K30">
-        <f>I30-J30</f>
-        <v>-2736</v>
-      </c>
-      <c r="L30">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>-71</v>
       </c>
       <c r="M30">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="N30">
-        <f>L30-M30</f>
-        <v>-71</v>
-      </c>
-      <c r="O30">
-        <v>50</v>
+        <v>978</v>
       </c>
       <c r="P30">
-        <v>2715</v>
-      </c>
-      <c r="R30">
-        <v>38</v>
-      </c>
-      <c r="S30">
-        <v>990</v>
-      </c>
-      <c r="T30">
-        <v>31</v>
-      </c>
-      <c r="U30">
-        <v>978</v>
-      </c>
-      <c r="V30">
-        <v>7</v>
-      </c>
-      <c r="W30">
-        <v>12</v>
-      </c>
-      <c r="Y30">
         <v>1448</v>
       </c>
-      <c r="Z30">
+      <c r="Q30">
         <v>51820</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="R30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5048,60 +4172,32 @@
         <v>4426</v>
       </c>
       <c r="I31">
-        <v>10791</v>
+        <v>3130</v>
       </c>
       <c r="J31">
-        <v>424296</v>
+        <v>3833</v>
       </c>
       <c r="K31">
-        <f>I31-J31</f>
-        <v>-413505</v>
-      </c>
-      <c r="L31">
-        <v>3130</v>
+        <f t="shared" si="0"/>
+        <v>-703</v>
       </c>
       <c r="M31">
-        <v>3833</v>
+        <v>2924</v>
       </c>
       <c r="N31">
-        <f>L31-M31</f>
-        <v>-703</v>
-      </c>
-      <c r="O31">
-        <v>7661</v>
+        <v>24250</v>
       </c>
       <c r="P31">
-        <v>420463</v>
-      </c>
-      <c r="R31">
-        <v>4046</v>
-      </c>
-      <c r="S31">
-        <v>24518</v>
-      </c>
-      <c r="T31">
-        <v>2924</v>
-      </c>
-      <c r="U31">
-        <v>24250</v>
-      </c>
-      <c r="V31">
-        <v>1122</v>
-      </c>
-      <c r="W31">
-        <v>268</v>
-      </c>
-      <c r="Y31">
         <v>216697</v>
       </c>
-      <c r="Z31">
+      <c r="Q31">
         <v>1513714</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="R31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5127,60 +4223,32 @@
         <v>2211</v>
       </c>
       <c r="I32">
-        <v>9365</v>
+        <v>2971</v>
       </c>
       <c r="J32">
-        <v>116073</v>
+        <v>3001</v>
       </c>
       <c r="K32">
-        <f>I32-J32</f>
-        <v>-106708</v>
-      </c>
-      <c r="L32">
-        <v>2971</v>
+        <f t="shared" si="0"/>
+        <v>-30</v>
       </c>
       <c r="M32">
-        <v>3001</v>
+        <v>2691</v>
       </c>
       <c r="N32">
-        <f>L32-M32</f>
-        <v>-30</v>
-      </c>
-      <c r="O32">
-        <v>6394</v>
+        <v>1016</v>
       </c>
       <c r="P32">
-        <v>113072</v>
-      </c>
-      <c r="R32">
-        <v>5080</v>
-      </c>
-      <c r="S32">
-        <v>1041</v>
-      </c>
-      <c r="T32">
-        <v>2691</v>
-      </c>
-      <c r="U32">
-        <v>1016</v>
-      </c>
-      <c r="V32">
-        <v>2389</v>
-      </c>
-      <c r="W32">
-        <v>25</v>
-      </c>
-      <c r="Y32">
         <v>39641</v>
       </c>
-      <c r="Z32">
+      <c r="Q32">
         <v>52798</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="R32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5206,60 +4274,32 @@
         <v>3258</v>
       </c>
       <c r="I33">
-        <v>18213</v>
+        <v>4188</v>
       </c>
       <c r="J33">
-        <v>423326</v>
+        <v>4859</v>
       </c>
       <c r="K33">
-        <f>I33-J33</f>
-        <v>-405113</v>
-      </c>
-      <c r="L33">
-        <v>4188</v>
+        <f t="shared" si="0"/>
+        <v>-671</v>
       </c>
       <c r="M33">
-        <v>4859</v>
+        <v>3926</v>
       </c>
       <c r="N33">
-        <f>L33-M33</f>
-        <v>-671</v>
-      </c>
-      <c r="O33">
-        <v>14025</v>
+        <v>32962</v>
       </c>
       <c r="P33">
-        <v>418467</v>
-      </c>
-      <c r="R33">
-        <v>7053</v>
-      </c>
-      <c r="S33">
-        <v>33334</v>
-      </c>
-      <c r="T33">
-        <v>3926</v>
-      </c>
-      <c r="U33">
-        <v>32962</v>
-      </c>
-      <c r="V33">
-        <v>3127</v>
-      </c>
-      <c r="W33">
-        <v>372</v>
-      </c>
-      <c r="Y33">
         <v>178722</v>
       </c>
-      <c r="Z33">
+      <c r="Q33">
         <v>1596656</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="R33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5282,60 +4322,32 @@
         <v>2509</v>
       </c>
       <c r="I34">
-        <v>16470</v>
+        <v>3171</v>
       </c>
       <c r="J34">
-        <v>308295</v>
+        <v>3660</v>
       </c>
       <c r="K34">
-        <f>I34-J34</f>
-        <v>-291825</v>
-      </c>
-      <c r="L34">
-        <v>3171</v>
+        <f t="shared" ref="K34:K65" si="1">I34-J34</f>
+        <v>-489</v>
       </c>
       <c r="M34">
-        <v>3660</v>
+        <v>2826</v>
       </c>
       <c r="N34">
-        <f>L34-M34</f>
-        <v>-489</v>
-      </c>
-      <c r="O34">
-        <v>13299</v>
+        <v>18662</v>
       </c>
       <c r="P34">
-        <v>304635</v>
-      </c>
-      <c r="R34">
-        <v>5954</v>
-      </c>
-      <c r="S34">
-        <v>18940</v>
-      </c>
-      <c r="T34">
-        <v>2826</v>
-      </c>
-      <c r="U34">
-        <v>18662</v>
-      </c>
-      <c r="V34">
-        <v>3128</v>
-      </c>
-      <c r="W34">
-        <v>278</v>
-      </c>
-      <c r="Y34">
         <v>138551</v>
       </c>
-      <c r="Z34">
+      <c r="Q34">
         <v>1022827</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="R34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5358,60 +4370,32 @@
         <v>485</v>
       </c>
       <c r="I35">
-        <v>2741</v>
+        <v>1357</v>
       </c>
       <c r="J35">
-        <v>53449</v>
+        <v>1796</v>
       </c>
       <c r="K35">
-        <f>I35-J35</f>
-        <v>-50708</v>
-      </c>
-      <c r="L35">
-        <v>1357</v>
+        <f t="shared" si="1"/>
+        <v>-439</v>
       </c>
       <c r="M35">
-        <v>1796</v>
+        <v>1202</v>
       </c>
       <c r="N35">
-        <f>L35-M35</f>
-        <v>-439</v>
-      </c>
-      <c r="O35">
-        <v>1384</v>
+        <v>11509</v>
       </c>
       <c r="P35">
-        <v>51653</v>
-      </c>
-      <c r="R35">
-        <v>1548</v>
-      </c>
-      <c r="S35">
-        <v>11605</v>
-      </c>
-      <c r="T35">
-        <v>1202</v>
-      </c>
-      <c r="U35">
-        <v>11509</v>
-      </c>
-      <c r="V35">
-        <v>346</v>
-      </c>
-      <c r="W35">
-        <v>96</v>
-      </c>
-      <c r="Y35">
         <v>25222</v>
       </c>
-      <c r="Z35">
+      <c r="Q35">
         <v>570313</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="R35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5431,60 +4415,32 @@
         <v>71</v>
       </c>
       <c r="I36">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="J36">
-        <v>3391</v>
+        <v>176</v>
       </c>
       <c r="K36">
-        <f>I36-J36</f>
-        <v>-3222</v>
-      </c>
-      <c r="L36">
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>-95</v>
       </c>
       <c r="M36">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="N36">
-        <f>L36-M36</f>
-        <v>-95</v>
-      </c>
-      <c r="O36">
-        <v>88</v>
+        <v>1457</v>
       </c>
       <c r="P36">
-        <v>3215</v>
-      </c>
-      <c r="R36">
-        <v>83</v>
-      </c>
-      <c r="S36">
-        <v>1472</v>
-      </c>
-      <c r="T36">
-        <v>72</v>
-      </c>
-      <c r="U36">
-        <v>1457</v>
-      </c>
-      <c r="V36">
-        <v>11</v>
-      </c>
-      <c r="W36">
-        <v>15</v>
-      </c>
-      <c r="Y36">
         <v>2399</v>
       </c>
-      <c r="Z36">
+      <c r="Q36">
         <v>75038</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="R36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5504,60 +4460,32 @@
         <v>25</v>
       </c>
       <c r="I37">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="J37">
-        <v>3128</v>
+        <v>119</v>
       </c>
       <c r="K37">
-        <f>I37-J37</f>
-        <v>-3002</v>
-      </c>
-      <c r="L37">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>-69</v>
       </c>
       <c r="M37">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="N37">
-        <f>L37-M37</f>
-        <v>-69</v>
-      </c>
-      <c r="O37">
-        <v>76</v>
+        <v>1081</v>
       </c>
       <c r="P37">
-        <v>3009</v>
-      </c>
-      <c r="R37">
-        <v>54</v>
-      </c>
-      <c r="S37">
-        <v>1091</v>
-      </c>
-      <c r="T37">
-        <v>46</v>
-      </c>
-      <c r="U37">
-        <v>1081</v>
-      </c>
-      <c r="V37">
-        <v>8</v>
-      </c>
-      <c r="W37">
-        <v>10</v>
-      </c>
-      <c r="Y37">
         <v>1534</v>
       </c>
-      <c r="Z37">
+      <c r="Q37">
         <v>59980</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="R37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5577,60 +4505,32 @@
         <v>61</v>
       </c>
       <c r="I38">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="J38">
-        <v>4033</v>
+        <v>151</v>
       </c>
       <c r="K38">
-        <f>I38-J38</f>
-        <v>-3798</v>
-      </c>
-      <c r="L38">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>-73</v>
       </c>
       <c r="M38">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="N38">
-        <f>L38-M38</f>
-        <v>-73</v>
-      </c>
-      <c r="O38">
-        <v>157</v>
+        <v>1228</v>
       </c>
       <c r="P38">
-        <v>3882</v>
-      </c>
-      <c r="R38">
-        <v>98</v>
-      </c>
-      <c r="S38">
-        <v>1257</v>
-      </c>
-      <c r="T38">
-        <v>76</v>
-      </c>
-      <c r="U38">
-        <v>1228</v>
-      </c>
-      <c r="V38">
-        <v>22</v>
-      </c>
-      <c r="W38">
-        <v>29</v>
-      </c>
-      <c r="Y38">
         <v>2147</v>
       </c>
-      <c r="Z38">
+      <c r="Q38">
         <v>65345</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="R38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5656,60 +4556,32 @@
         <v>2624</v>
       </c>
       <c r="I39">
-        <v>14176</v>
+        <v>4963</v>
       </c>
       <c r="J39">
-        <v>281605</v>
+        <v>5394</v>
       </c>
       <c r="K39">
-        <f>I39-J39</f>
-        <v>-267429</v>
-      </c>
-      <c r="L39">
-        <v>4963</v>
+        <f t="shared" si="1"/>
+        <v>-431</v>
       </c>
       <c r="M39">
-        <v>5394</v>
+        <v>4610</v>
       </c>
       <c r="N39">
-        <f>L39-M39</f>
-        <v>-431</v>
-      </c>
-      <c r="O39">
-        <v>9213</v>
+        <v>18245</v>
       </c>
       <c r="P39">
-        <v>276211</v>
-      </c>
-      <c r="R39">
-        <v>6816</v>
-      </c>
-      <c r="S39">
-        <v>18674</v>
-      </c>
-      <c r="T39">
-        <v>4610</v>
-      </c>
-      <c r="U39">
-        <v>18245</v>
-      </c>
-      <c r="V39">
-        <v>2206</v>
-      </c>
-      <c r="W39">
-        <v>429</v>
-      </c>
-      <c r="Y39">
         <v>126711</v>
       </c>
-      <c r="Z39">
+      <c r="Q39">
         <v>889612</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="R39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5729,60 +4601,32 @@
         <v>1045</v>
       </c>
       <c r="I40">
-        <v>1778</v>
+        <v>1273</v>
       </c>
       <c r="J40">
-        <v>13184</v>
+        <v>2373</v>
       </c>
       <c r="K40">
-        <f>I40-J40</f>
-        <v>-11406</v>
-      </c>
-      <c r="L40">
-        <v>1273</v>
+        <f t="shared" si="1"/>
+        <v>-1100</v>
       </c>
       <c r="M40">
-        <v>2373</v>
+        <v>1026</v>
       </c>
       <c r="N40">
-        <f>L40-M40</f>
-        <v>-1100</v>
-      </c>
-      <c r="O40">
-        <v>505</v>
+        <v>17140</v>
       </c>
       <c r="P40">
-        <v>10811</v>
-      </c>
-      <c r="R40">
-        <v>1088</v>
-      </c>
-      <c r="S40">
-        <v>17199</v>
-      </c>
-      <c r="T40">
-        <v>1026</v>
-      </c>
-      <c r="U40">
-        <v>17140</v>
-      </c>
-      <c r="V40">
-        <v>62</v>
-      </c>
-      <c r="W40">
-        <v>59</v>
-      </c>
-      <c r="Y40">
         <v>6505</v>
       </c>
-      <c r="Z40">
+      <c r="Q40">
         <v>1072736</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="R40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5802,60 +4646,32 @@
         <v>58</v>
       </c>
       <c r="I41">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="J41">
-        <v>3168</v>
+        <v>167</v>
       </c>
       <c r="K41">
-        <f>I41-J41</f>
-        <v>-3048</v>
-      </c>
-      <c r="L41">
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>-101</v>
       </c>
       <c r="M41">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="N41">
-        <f>L41-M41</f>
-        <v>-101</v>
-      </c>
-      <c r="O41">
-        <v>54</v>
+        <v>1264</v>
       </c>
       <c r="P41">
-        <v>3001</v>
-      </c>
-      <c r="R41">
-        <v>68</v>
-      </c>
-      <c r="S41">
-        <v>1270</v>
-      </c>
-      <c r="T41">
-        <v>62</v>
-      </c>
-      <c r="U41">
-        <v>1264</v>
-      </c>
-      <c r="V41">
-        <v>6</v>
-      </c>
-      <c r="W41">
-        <v>6</v>
-      </c>
-      <c r="Y41">
         <v>2624</v>
       </c>
-      <c r="Z41">
+      <c r="Q41">
         <v>66124</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="R41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5881,60 +4697,32 @@
         <v>506</v>
       </c>
       <c r="I42">
-        <v>3149</v>
+        <v>1201</v>
       </c>
       <c r="J42">
-        <v>46144</v>
+        <v>1450</v>
       </c>
       <c r="K42">
-        <f>I42-J42</f>
-        <v>-42995</v>
-      </c>
-      <c r="L42">
-        <v>1201</v>
+        <f t="shared" si="1"/>
+        <v>-249</v>
       </c>
       <c r="M42">
-        <v>1450</v>
+        <v>1014</v>
       </c>
       <c r="N42">
-        <f>L42-M42</f>
-        <v>-249</v>
-      </c>
-      <c r="O42">
-        <v>1948</v>
+        <v>8355</v>
       </c>
       <c r="P42">
-        <v>44694</v>
-      </c>
-      <c r="R42">
-        <v>1509</v>
-      </c>
-      <c r="S42">
-        <v>8434</v>
-      </c>
-      <c r="T42">
-        <v>1014</v>
-      </c>
-      <c r="U42">
-        <v>8355</v>
-      </c>
-      <c r="V42">
-        <v>495</v>
-      </c>
-      <c r="W42">
-        <v>79</v>
-      </c>
-      <c r="Y42">
         <v>16767</v>
       </c>
-      <c r="Z42">
+      <c r="Q42">
         <v>325683</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="R42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5957,60 +4745,32 @@
         <v>3404</v>
       </c>
       <c r="I43">
-        <v>12816</v>
+        <v>5125</v>
       </c>
       <c r="J43">
-        <v>193485</v>
+        <v>6015</v>
       </c>
       <c r="K43">
-        <f>I43-J43</f>
-        <v>-180669</v>
-      </c>
-      <c r="L43">
-        <v>5125</v>
+        <f t="shared" si="1"/>
+        <v>-890</v>
       </c>
       <c r="M43">
-        <v>6015</v>
+        <v>4604</v>
       </c>
       <c r="N43">
-        <f>L43-M43</f>
-        <v>-890</v>
-      </c>
-      <c r="O43">
-        <v>7691</v>
+        <v>14367</v>
       </c>
       <c r="P43">
-        <v>187470</v>
-      </c>
-      <c r="R43">
-        <v>6187</v>
-      </c>
-      <c r="S43">
-        <v>15321</v>
-      </c>
-      <c r="T43">
-        <v>4604</v>
-      </c>
-      <c r="U43">
-        <v>14367</v>
-      </c>
-      <c r="V43">
-        <v>1583</v>
-      </c>
-      <c r="W43">
-        <v>954</v>
-      </c>
-      <c r="Y43">
         <v>130864</v>
       </c>
-      <c r="Z43">
+      <c r="Q43">
         <v>822199</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="R43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -6036,60 +4796,32 @@
         <v>144</v>
       </c>
       <c r="I44">
-        <v>1379</v>
+        <v>553</v>
       </c>
       <c r="J44">
-        <v>13517</v>
+        <v>710</v>
       </c>
       <c r="K44">
-        <f>I44-J44</f>
-        <v>-12138</v>
-      </c>
-      <c r="L44">
-        <v>553</v>
+        <f t="shared" si="1"/>
+        <v>-157</v>
       </c>
       <c r="M44">
-        <v>710</v>
+        <v>449</v>
       </c>
       <c r="N44">
-        <f>L44-M44</f>
-        <v>-157</v>
-      </c>
-      <c r="O44">
-        <v>826</v>
+        <v>3617</v>
       </c>
       <c r="P44">
-        <v>12807</v>
-      </c>
-      <c r="R44">
-        <v>565</v>
-      </c>
-      <c r="S44">
-        <v>3639</v>
-      </c>
-      <c r="T44">
-        <v>449</v>
-      </c>
-      <c r="U44">
-        <v>3617</v>
-      </c>
-      <c r="V44">
-        <v>116</v>
-      </c>
-      <c r="W44">
-        <v>22</v>
-      </c>
-      <c r="Y44">
         <v>4509</v>
       </c>
-      <c r="Z44">
+      <c r="Q44">
         <v>195491</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="R44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6109,60 +4841,32 @@
         <v>76</v>
       </c>
       <c r="I45">
-        <v>550</v>
+        <v>212</v>
       </c>
       <c r="J45">
-        <v>3457</v>
+        <v>284</v>
       </c>
       <c r="K45">
-        <f>I45-J45</f>
-        <v>-2907</v>
-      </c>
-      <c r="L45">
-        <v>212</v>
+        <f t="shared" si="1"/>
+        <v>-72</v>
       </c>
       <c r="M45">
-        <v>284</v>
+        <v>200</v>
       </c>
       <c r="N45">
-        <f>L45-M45</f>
-        <v>-72</v>
-      </c>
-      <c r="O45">
-        <v>338</v>
+        <v>2010</v>
       </c>
       <c r="P45">
-        <v>3173</v>
-      </c>
-      <c r="R45">
-        <v>375</v>
-      </c>
-      <c r="S45">
-        <v>2058</v>
-      </c>
-      <c r="T45">
-        <v>200</v>
-      </c>
-      <c r="U45">
-        <v>2010</v>
-      </c>
-      <c r="V45">
-        <v>175</v>
-      </c>
-      <c r="W45">
-        <v>48</v>
-      </c>
-      <c r="Y45">
         <v>6877</v>
       </c>
-      <c r="Z45">
+      <c r="Q45">
         <v>93647</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="R45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6188,60 +4892,32 @@
         <v>2593</v>
       </c>
       <c r="I46">
-        <v>11838</v>
+        <v>3475</v>
       </c>
       <c r="J46">
-        <v>263760</v>
+        <v>3908</v>
       </c>
       <c r="K46">
-        <f>I46-J46</f>
-        <v>-251922</v>
-      </c>
-      <c r="L46">
-        <v>3475</v>
+        <f t="shared" si="1"/>
+        <v>-433</v>
       </c>
       <c r="M46">
-        <v>3908</v>
+        <v>3042</v>
       </c>
       <c r="N46">
-        <f>L46-M46</f>
-        <v>-433</v>
-      </c>
-      <c r="O46">
-        <v>8363</v>
+        <v>11640</v>
       </c>
       <c r="P46">
-        <v>259852</v>
-      </c>
-      <c r="R46">
-        <v>4851</v>
-      </c>
-      <c r="S46">
-        <v>11851</v>
-      </c>
-      <c r="T46">
-        <v>3042</v>
-      </c>
-      <c r="U46">
-        <v>11640</v>
-      </c>
-      <c r="V46">
-        <v>1809</v>
-      </c>
-      <c r="W46">
-        <v>211</v>
-      </c>
-      <c r="Y46">
         <v>94753</v>
       </c>
-      <c r="Z46">
+      <c r="Q46">
         <v>603708</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="R46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6261,60 +4937,32 @@
         <v>29</v>
       </c>
       <c r="I47">
-        <v>386</v>
+        <v>305</v>
       </c>
       <c r="J47">
-        <v>2218</v>
+        <v>686</v>
       </c>
       <c r="K47">
-        <f>I47-J47</f>
-        <v>-1832</v>
-      </c>
-      <c r="L47">
-        <v>305</v>
+        <f t="shared" si="1"/>
+        <v>-381</v>
       </c>
       <c r="M47">
-        <v>686</v>
+        <v>247</v>
       </c>
       <c r="N47">
-        <f>L47-M47</f>
-        <v>-381</v>
-      </c>
-      <c r="O47">
-        <v>81</v>
+        <v>3485</v>
       </c>
       <c r="P47">
-        <v>1532</v>
-      </c>
-      <c r="R47">
-        <v>260</v>
-      </c>
-      <c r="S47">
-        <v>3506</v>
-      </c>
-      <c r="T47">
-        <v>247</v>
-      </c>
-      <c r="U47">
-        <v>3485</v>
-      </c>
-      <c r="V47">
-        <v>13</v>
-      </c>
-      <c r="W47">
-        <v>21</v>
-      </c>
-      <c r="Y47">
         <v>1190</v>
       </c>
-      <c r="Z47">
+      <c r="Q47">
         <v>166798</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="R47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6340,60 +4988,32 @@
         <v>223</v>
       </c>
       <c r="I48">
-        <v>1105</v>
+        <v>368</v>
       </c>
       <c r="J48">
-        <v>10187</v>
+        <v>463</v>
       </c>
       <c r="K48">
-        <f>I48-J48</f>
-        <v>-9082</v>
-      </c>
-      <c r="L48">
-        <v>368</v>
+        <f t="shared" si="1"/>
+        <v>-95</v>
       </c>
       <c r="M48">
-        <v>463</v>
+        <v>268</v>
       </c>
       <c r="N48">
-        <f>L48-M48</f>
-        <v>-95</v>
-      </c>
-      <c r="O48">
-        <v>737</v>
+        <v>2609</v>
       </c>
       <c r="P48">
-        <v>9724</v>
-      </c>
-      <c r="R48">
-        <v>332</v>
-      </c>
-      <c r="S48">
-        <v>2628</v>
-      </c>
-      <c r="T48">
-        <v>268</v>
-      </c>
-      <c r="U48">
-        <v>2609</v>
-      </c>
-      <c r="V48">
-        <v>64</v>
-      </c>
-      <c r="W48">
-        <v>19</v>
-      </c>
-      <c r="Y48">
         <v>4625</v>
       </c>
-      <c r="Z48">
+      <c r="Q48">
         <v>155605</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="R48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6413,60 +5033,32 @@
         <v>57</v>
       </c>
       <c r="I49">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="J49">
-        <v>4573</v>
+        <v>367</v>
       </c>
       <c r="K49">
-        <f>I49-J49</f>
-        <v>-4329</v>
-      </c>
-      <c r="L49">
-        <v>192</v>
+        <f t="shared" si="1"/>
+        <v>-175</v>
       </c>
       <c r="M49">
-        <v>367</v>
+        <v>184</v>
       </c>
       <c r="N49">
-        <f>L49-M49</f>
-        <v>-175</v>
-      </c>
-      <c r="O49">
-        <v>52</v>
+        <v>3138</v>
       </c>
       <c r="P49">
-        <v>4206</v>
-      </c>
-      <c r="R49">
-        <v>193</v>
-      </c>
-      <c r="S49">
-        <v>3153</v>
-      </c>
-      <c r="T49">
-        <v>184</v>
-      </c>
-      <c r="U49">
-        <v>3138</v>
-      </c>
-      <c r="V49">
-        <v>9</v>
-      </c>
-      <c r="W49">
-        <v>15</v>
-      </c>
-      <c r="Y49">
         <v>3186</v>
       </c>
-      <c r="Z49">
+      <c r="Q49">
         <v>165136</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="R49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6492,60 +5084,32 @@
         <v>11222</v>
       </c>
       <c r="I50">
-        <v>42237</v>
+        <v>4833</v>
       </c>
       <c r="J50">
-        <v>1448459</v>
+        <v>5269</v>
       </c>
       <c r="K50">
-        <f>I50-J50</f>
-        <v>-1406222</v>
-      </c>
-      <c r="L50">
-        <v>4833</v>
+        <f t="shared" si="1"/>
+        <v>-436</v>
       </c>
       <c r="M50">
-        <v>5269</v>
+        <v>4586</v>
       </c>
       <c r="N50">
-        <f>L50-M50</f>
-        <v>-436</v>
-      </c>
-      <c r="O50">
-        <v>37404</v>
+        <v>25938</v>
       </c>
       <c r="P50">
-        <v>1443190</v>
-      </c>
-      <c r="R50">
-        <v>15571</v>
-      </c>
-      <c r="S50">
-        <v>26687</v>
-      </c>
-      <c r="T50">
-        <v>4586</v>
-      </c>
-      <c r="U50">
-        <v>25938</v>
-      </c>
-      <c r="V50">
-        <v>10985</v>
-      </c>
-      <c r="W50">
-        <v>749</v>
-      </c>
-      <c r="Y50">
         <v>555918</v>
       </c>
-      <c r="Z50">
+      <c r="Q50">
         <v>1366612</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="R50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6571,60 +5135,32 @@
         <v>1735</v>
       </c>
       <c r="I51">
-        <v>10534</v>
+        <v>2153</v>
       </c>
       <c r="J51">
-        <v>31347</v>
+        <v>2525</v>
       </c>
       <c r="K51">
-        <f>I51-J51</f>
-        <v>-20813</v>
-      </c>
-      <c r="L51">
-        <v>2153</v>
+        <f t="shared" si="1"/>
+        <v>-372</v>
       </c>
       <c r="M51">
-        <v>2525</v>
+        <v>2048</v>
       </c>
       <c r="N51">
-        <f>L51-M51</f>
-        <v>-372</v>
-      </c>
-      <c r="O51">
-        <v>8381</v>
+        <v>18912</v>
       </c>
       <c r="P51">
-        <v>28822</v>
-      </c>
-      <c r="R51">
-        <v>2949</v>
-      </c>
-      <c r="S51">
-        <v>19042</v>
-      </c>
-      <c r="T51">
-        <v>2048</v>
-      </c>
-      <c r="U51">
-        <v>18912</v>
-      </c>
-      <c r="V51">
-        <v>901</v>
-      </c>
-      <c r="W51">
-        <v>130</v>
-      </c>
-      <c r="Y51">
         <v>160475</v>
       </c>
-      <c r="Z51">
+      <c r="Q51">
         <v>767489</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="R51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6650,60 +5186,32 @@
         <v>528</v>
       </c>
       <c r="I52">
-        <v>4558</v>
+        <v>1759</v>
       </c>
       <c r="J52">
-        <v>11323</v>
+        <v>1959</v>
       </c>
       <c r="K52">
-        <f>I52-J52</f>
-        <v>-6765</v>
-      </c>
-      <c r="L52">
-        <v>1759</v>
+        <f t="shared" si="1"/>
+        <v>-200</v>
       </c>
       <c r="M52">
-        <v>1959</v>
+        <v>1664</v>
       </c>
       <c r="N52">
-        <f>L52-M52</f>
-        <v>-200</v>
-      </c>
-      <c r="O52">
-        <v>2799</v>
+        <v>7470</v>
       </c>
       <c r="P52">
-        <v>9364</v>
-      </c>
-      <c r="R52">
-        <v>2132</v>
-      </c>
-      <c r="S52">
-        <v>7572</v>
-      </c>
-      <c r="T52">
-        <v>1664</v>
-      </c>
-      <c r="U52">
-        <v>7470</v>
-      </c>
-      <c r="V52">
-        <v>468</v>
-      </c>
-      <c r="W52">
-        <v>102</v>
-      </c>
-      <c r="Y52">
         <v>51234</v>
       </c>
-      <c r="Z52">
+      <c r="Q52">
         <v>345764</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="R52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6729,60 +5237,32 @@
         <v>5628</v>
       </c>
       <c r="I53">
-        <v>30683</v>
+        <v>7236</v>
       </c>
       <c r="J53">
-        <v>870965</v>
+        <v>8254</v>
       </c>
       <c r="K53">
-        <f>I53-J53</f>
-        <v>-840282</v>
-      </c>
-      <c r="L53">
-        <v>7236</v>
+        <f t="shared" si="1"/>
+        <v>-1018</v>
       </c>
       <c r="M53">
-        <v>8254</v>
+        <v>6859</v>
       </c>
       <c r="N53">
-        <f>L53-M53</f>
-        <v>-1018</v>
-      </c>
-      <c r="O53">
-        <v>23447</v>
+        <v>39235</v>
       </c>
       <c r="P53">
-        <v>862711</v>
-      </c>
-      <c r="R53">
-        <v>12373</v>
-      </c>
-      <c r="S53">
-        <v>39802</v>
-      </c>
-      <c r="T53">
-        <v>6859</v>
-      </c>
-      <c r="U53">
-        <v>39235</v>
-      </c>
-      <c r="V53">
-        <v>5514</v>
-      </c>
-      <c r="W53">
-        <v>567</v>
-      </c>
-      <c r="Y53">
         <v>390986</v>
       </c>
-      <c r="Z53">
+      <c r="Q53">
         <v>2061967</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="R53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6802,60 +5282,32 @@
         <v>114</v>
       </c>
       <c r="I54">
-        <v>475</v>
+        <v>354</v>
       </c>
       <c r="J54">
-        <v>2615</v>
+        <v>461</v>
       </c>
       <c r="K54">
-        <f>I54-J54</f>
-        <v>-2140</v>
-      </c>
-      <c r="L54">
-        <v>354</v>
+        <f t="shared" si="1"/>
+        <v>-107</v>
       </c>
       <c r="M54">
-        <v>461</v>
+        <v>264</v>
       </c>
       <c r="N54">
-        <f>L54-M54</f>
-        <v>-107</v>
-      </c>
-      <c r="O54">
-        <v>121</v>
+        <v>2611</v>
       </c>
       <c r="P54">
-        <v>2154</v>
-      </c>
-      <c r="R54">
-        <v>286</v>
-      </c>
-      <c r="S54">
-        <v>2648</v>
-      </c>
-      <c r="T54">
-        <v>264</v>
-      </c>
-      <c r="U54">
-        <v>2611</v>
-      </c>
-      <c r="V54">
-        <v>22</v>
-      </c>
-      <c r="W54">
-        <v>37</v>
-      </c>
-      <c r="Y54">
         <v>2318</v>
       </c>
-      <c r="Z54">
+      <c r="Q54">
         <v>171589</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="R54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6881,60 +5333,32 @@
         <v>732</v>
       </c>
       <c r="I55">
-        <v>4045</v>
+        <v>2252</v>
       </c>
       <c r="J55">
-        <v>10456</v>
+        <v>2459</v>
       </c>
       <c r="K55">
-        <f>I55-J55</f>
-        <v>-6411</v>
-      </c>
-      <c r="L55">
-        <v>2252</v>
+        <f t="shared" si="1"/>
+        <v>-207</v>
       </c>
       <c r="M55">
-        <v>2459</v>
+        <v>2128</v>
       </c>
       <c r="N55">
-        <f>L55-M55</f>
-        <v>-207</v>
-      </c>
-      <c r="O55">
-        <v>1793</v>
+        <v>17594</v>
       </c>
       <c r="P55">
-        <v>7997</v>
-      </c>
-      <c r="R55">
-        <v>2425</v>
-      </c>
-      <c r="S55">
-        <v>17618</v>
-      </c>
-      <c r="T55">
-        <v>2128</v>
-      </c>
-      <c r="U55">
-        <v>17594</v>
-      </c>
-      <c r="V55">
-        <v>297</v>
-      </c>
-      <c r="W55">
-        <v>24</v>
-      </c>
-      <c r="Y55">
         <v>52482</v>
       </c>
-      <c r="Z55">
+      <c r="Q55">
         <v>702753</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="R55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6954,60 +5378,32 @@
         <v>36</v>
       </c>
       <c r="I56">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="J56">
-        <v>3438</v>
+        <v>122</v>
       </c>
       <c r="K56">
-        <f>I56-J56</f>
-        <v>-3276</v>
-      </c>
-      <c r="L56">
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>-59</v>
       </c>
       <c r="M56">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="N56">
-        <f>L56-M56</f>
-        <v>-59</v>
-      </c>
-      <c r="O56">
-        <v>99</v>
+        <v>1113</v>
       </c>
       <c r="P56">
-        <v>3316</v>
-      </c>
-      <c r="R56">
-        <v>64</v>
-      </c>
-      <c r="S56">
-        <v>1122</v>
-      </c>
-      <c r="T56">
-        <v>59</v>
-      </c>
-      <c r="U56">
-        <v>1113</v>
-      </c>
-      <c r="V56">
+        <v>1691</v>
+      </c>
+      <c r="Q56">
+        <v>70349</v>
+      </c>
+      <c r="R56" t="s">
         <v>5</v>
       </c>
-      <c r="W56">
-        <v>9</v>
-      </c>
-      <c r="Y56">
-        <v>1691</v>
-      </c>
-      <c r="Z56">
-        <v>70349</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -7033,60 +5429,32 @@
         <v>7131</v>
       </c>
       <c r="I57">
-        <v>46397</v>
+        <v>9549</v>
       </c>
       <c r="J57">
-        <v>914381</v>
+        <v>10717</v>
       </c>
       <c r="K57">
-        <f>I57-J57</f>
-        <v>-867984</v>
-      </c>
-      <c r="L57">
-        <v>9549</v>
+        <f t="shared" si="1"/>
+        <v>-1168</v>
       </c>
       <c r="M57">
-        <v>10717</v>
+        <v>8822</v>
       </c>
       <c r="N57">
-        <f>L57-M57</f>
-        <v>-1168</v>
-      </c>
-      <c r="O57">
-        <v>36848</v>
+        <v>28558</v>
       </c>
       <c r="P57">
-        <v>903664</v>
-      </c>
-      <c r="R57">
-        <v>17034</v>
-      </c>
-      <c r="S57">
-        <v>28971</v>
-      </c>
-      <c r="T57">
-        <v>8822</v>
-      </c>
-      <c r="U57">
-        <v>28558</v>
-      </c>
-      <c r="V57">
-        <v>8212</v>
-      </c>
-      <c r="W57">
-        <v>413</v>
-      </c>
-      <c r="Y57">
         <v>399449</v>
       </c>
-      <c r="Z57">
+      <c r="Q57">
         <v>1257143</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="R57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7112,60 +5480,32 @@
         <v>1990</v>
       </c>
       <c r="I58">
-        <v>4924</v>
+        <v>1342</v>
       </c>
       <c r="J58">
-        <v>45357</v>
+        <v>1745</v>
       </c>
       <c r="K58">
-        <f>I58-J58</f>
-        <v>-40433</v>
-      </c>
-      <c r="L58">
-        <v>1342</v>
+        <f t="shared" si="1"/>
+        <v>-403</v>
       </c>
       <c r="M58">
-        <v>1745</v>
+        <v>1188</v>
       </c>
       <c r="N58">
-        <f>L58-M58</f>
-        <v>-403</v>
-      </c>
-      <c r="O58">
-        <v>3582</v>
+        <v>10263</v>
       </c>
       <c r="P58">
-        <v>43612</v>
-      </c>
-      <c r="R58">
-        <v>2053</v>
-      </c>
-      <c r="S58">
-        <v>10347</v>
-      </c>
-      <c r="T58">
-        <v>1188</v>
-      </c>
-      <c r="U58">
-        <v>10263</v>
-      </c>
-      <c r="V58">
-        <v>865</v>
-      </c>
-      <c r="W58">
-        <v>84</v>
-      </c>
-      <c r="Y58">
         <v>145982</v>
       </c>
-      <c r="Z58">
+      <c r="Q58">
         <v>441752</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="R58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7191,60 +5531,32 @@
         <v>1524</v>
       </c>
       <c r="I59">
-        <v>12666</v>
+        <v>4869</v>
       </c>
       <c r="J59">
-        <v>200508</v>
+        <v>5758</v>
       </c>
       <c r="K59">
-        <f>I59-J59</f>
-        <v>-187842</v>
-      </c>
-      <c r="L59">
-        <v>4869</v>
+        <f t="shared" si="1"/>
+        <v>-889</v>
       </c>
       <c r="M59">
-        <v>5758</v>
+        <v>4065</v>
       </c>
       <c r="N59">
-        <f>L59-M59</f>
-        <v>-889</v>
-      </c>
-      <c r="O59">
-        <v>7797</v>
+        <v>10818</v>
       </c>
       <c r="P59">
-        <v>194750</v>
-      </c>
-      <c r="R59">
-        <v>5506</v>
-      </c>
-      <c r="S59">
-        <v>10933</v>
-      </c>
-      <c r="T59">
-        <v>4065</v>
-      </c>
-      <c r="U59">
-        <v>10818</v>
-      </c>
-      <c r="V59">
-        <v>1441</v>
-      </c>
-      <c r="W59">
-        <v>115</v>
-      </c>
-      <c r="Y59">
         <v>94872</v>
       </c>
-      <c r="Z59">
+      <c r="Q59">
         <v>522465</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="R59" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -7270,60 +5582,32 @@
         <v>753</v>
       </c>
       <c r="I60">
-        <v>6557</v>
+        <v>1682</v>
       </c>
       <c r="J60">
-        <v>11883</v>
+        <v>1934</v>
       </c>
       <c r="K60">
-        <f>I60-J60</f>
-        <v>-5326</v>
-      </c>
-      <c r="L60">
-        <v>1682</v>
+        <f t="shared" si="1"/>
+        <v>-252</v>
       </c>
       <c r="M60">
-        <v>1934</v>
+        <v>1565</v>
       </c>
       <c r="N60">
-        <f>L60-M60</f>
-        <v>-252</v>
-      </c>
-      <c r="O60">
-        <v>4875</v>
+        <v>14373</v>
       </c>
       <c r="P60">
-        <v>9949</v>
-      </c>
-      <c r="R60">
-        <v>1962</v>
-      </c>
-      <c r="S60">
-        <v>14402</v>
-      </c>
-      <c r="T60">
-        <v>1565</v>
-      </c>
-      <c r="U60">
-        <v>14373</v>
-      </c>
-      <c r="V60">
-        <v>397</v>
-      </c>
-      <c r="W60">
-        <v>29</v>
-      </c>
-      <c r="Y60">
         <v>82856</v>
       </c>
-      <c r="Z60">
+      <c r="Q60">
         <v>560813</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="R60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7343,60 +5627,32 @@
         <v>43</v>
       </c>
       <c r="I61">
-        <v>390</v>
+        <v>123</v>
       </c>
       <c r="J61">
-        <v>1985</v>
+        <v>150</v>
       </c>
       <c r="K61">
-        <f>I61-J61</f>
-        <v>-1595</v>
-      </c>
-      <c r="L61">
-        <v>123</v>
+        <f t="shared" si="1"/>
+        <v>-27</v>
       </c>
       <c r="M61">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="N61">
-        <f>L61-M61</f>
-        <v>-27</v>
-      </c>
-      <c r="O61">
-        <v>267</v>
+        <v>1551</v>
       </c>
       <c r="P61">
-        <v>1835</v>
-      </c>
-      <c r="R61">
-        <v>250</v>
-      </c>
-      <c r="S61">
-        <v>1575</v>
-      </c>
-      <c r="T61">
-        <v>118</v>
-      </c>
-      <c r="U61">
-        <v>1551</v>
-      </c>
-      <c r="V61">
-        <v>132</v>
-      </c>
-      <c r="W61">
-        <v>24</v>
-      </c>
-      <c r="Y61">
         <v>3283</v>
       </c>
-      <c r="Z61">
+      <c r="Q61">
         <v>95821</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="R61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7416,60 +5672,32 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="J62">
-        <v>1699</v>
+        <v>352</v>
       </c>
       <c r="K62">
-        <f>I62-J62</f>
-        <v>-1382</v>
-      </c>
-      <c r="L62">
-        <v>249</v>
+        <f t="shared" si="1"/>
+        <v>-103</v>
       </c>
       <c r="M62">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="N62">
-        <f>L62-M62</f>
-        <v>-103</v>
-      </c>
-      <c r="O62">
-        <v>68</v>
+        <v>2668</v>
       </c>
       <c r="P62">
-        <v>1347</v>
-      </c>
-      <c r="R62">
-        <v>248</v>
-      </c>
-      <c r="S62">
-        <v>2693</v>
-      </c>
-      <c r="T62">
-        <v>236</v>
-      </c>
-      <c r="U62">
-        <v>2668</v>
-      </c>
-      <c r="V62">
-        <v>12</v>
-      </c>
-      <c r="W62">
-        <v>25</v>
-      </c>
-      <c r="Y62">
         <v>2079</v>
       </c>
-      <c r="Z62">
+      <c r="Q62">
         <v>167450</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="R62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -7495,60 +5723,32 @@
         <v>571</v>
       </c>
       <c r="I63">
-        <v>4284</v>
+        <v>1740</v>
       </c>
       <c r="J63">
-        <v>15484</v>
+        <v>2011</v>
       </c>
       <c r="K63">
-        <f>I63-J63</f>
-        <v>-11200</v>
-      </c>
-      <c r="L63">
-        <v>1740</v>
+        <f t="shared" si="1"/>
+        <v>-271</v>
       </c>
       <c r="M63">
-        <v>2011</v>
+        <v>1611</v>
       </c>
       <c r="N63">
-        <f>L63-M63</f>
-        <v>-271</v>
-      </c>
-      <c r="O63">
-        <v>2544</v>
+        <v>8456</v>
       </c>
       <c r="P63">
-        <v>13473</v>
-      </c>
-      <c r="R63">
-        <v>2159</v>
-      </c>
-      <c r="S63">
-        <v>8569</v>
-      </c>
-      <c r="T63">
-        <v>1611</v>
-      </c>
-      <c r="U63">
-        <v>8456</v>
-      </c>
-      <c r="V63">
-        <v>548</v>
-      </c>
-      <c r="W63">
-        <v>113</v>
-      </c>
-      <c r="Y63">
         <v>54329</v>
       </c>
-      <c r="Z63">
+      <c r="Q63">
         <v>413351</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="R63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -7574,60 +5774,32 @@
         <v>3543</v>
       </c>
       <c r="I64">
-        <v>17306</v>
+        <v>4917</v>
       </c>
       <c r="J64">
-        <v>412960</v>
+        <v>5369</v>
       </c>
       <c r="K64">
-        <f>I64-J64</f>
-        <v>-395654</v>
-      </c>
-      <c r="L64">
-        <v>4917</v>
+        <f t="shared" si="1"/>
+        <v>-452</v>
       </c>
       <c r="M64">
-        <v>5369</v>
+        <v>4651</v>
       </c>
       <c r="N64">
-        <f>L64-M64</f>
-        <v>-452</v>
-      </c>
-      <c r="O64">
-        <v>12389</v>
+        <v>32012</v>
       </c>
       <c r="P64">
-        <v>407591</v>
-      </c>
-      <c r="R64">
-        <v>6926</v>
-      </c>
-      <c r="S64">
-        <v>32641</v>
-      </c>
-      <c r="T64">
-        <v>4651</v>
-      </c>
-      <c r="U64">
-        <v>32012</v>
-      </c>
-      <c r="V64">
-        <v>2275</v>
-      </c>
-      <c r="W64">
-        <v>629</v>
-      </c>
-      <c r="Y64">
         <v>181864</v>
       </c>
-      <c r="Z64">
+      <c r="Q64">
         <v>1537469</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="R64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7647,60 +5819,32 @@
         <v>10</v>
       </c>
       <c r="I65">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J65">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="K65">
-        <f>I65-J65</f>
-        <v>-121</v>
-      </c>
-      <c r="L65">
-        <v>135</v>
+        <f t="shared" si="1"/>
+        <v>-36</v>
       </c>
       <c r="M65">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="N65">
-        <f>L65-M65</f>
-        <v>-36</v>
-      </c>
-      <c r="O65">
-        <v>11</v>
+        <v>1274</v>
       </c>
       <c r="P65">
-        <v>96</v>
-      </c>
-      <c r="R65">
-        <v>132</v>
-      </c>
-      <c r="S65">
-        <v>1278</v>
-      </c>
-      <c r="T65">
-        <v>129</v>
-      </c>
-      <c r="U65">
-        <v>1274</v>
-      </c>
-      <c r="V65">
-        <v>3</v>
-      </c>
-      <c r="W65">
-        <v>4</v>
-      </c>
-      <c r="Y65">
         <v>821</v>
       </c>
-      <c r="Z65">
+      <c r="Q65">
         <v>78297</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="R65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -7726,60 +5870,32 @@
         <v>390</v>
       </c>
       <c r="I66">
-        <v>490</v>
+        <v>261</v>
       </c>
       <c r="J66">
-        <v>6422</v>
+        <v>382</v>
       </c>
       <c r="K66">
-        <f>I66-J66</f>
-        <v>-5932</v>
-      </c>
-      <c r="L66">
-        <v>261</v>
+        <f t="shared" ref="K66:K97" si="2">I66-J66</f>
+        <v>-121</v>
       </c>
       <c r="M66">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="N66">
-        <f>L66-M66</f>
-        <v>-121</v>
-      </c>
-      <c r="O66">
-        <v>229</v>
+        <v>1307</v>
       </c>
       <c r="P66">
-        <v>6040</v>
-      </c>
-      <c r="R66">
-        <v>233</v>
-      </c>
-      <c r="S66">
-        <v>1313</v>
-      </c>
-      <c r="T66">
-        <v>207</v>
-      </c>
-      <c r="U66">
-        <v>1307</v>
-      </c>
-      <c r="V66">
-        <v>26</v>
-      </c>
-      <c r="W66">
-        <v>6</v>
-      </c>
-      <c r="Y66">
         <v>4575</v>
       </c>
-      <c r="Z66">
+      <c r="Q66">
         <v>93690</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="R66" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -7805,60 +5921,32 @@
         <v>1613</v>
       </c>
       <c r="I67">
-        <v>7974</v>
+        <v>2423</v>
       </c>
       <c r="J67">
-        <v>163645</v>
+        <v>2902</v>
       </c>
       <c r="K67">
-        <f>I67-J67</f>
-        <v>-155671</v>
-      </c>
-      <c r="L67">
-        <v>2423</v>
+        <f t="shared" si="2"/>
+        <v>-479</v>
       </c>
       <c r="M67">
-        <v>2902</v>
+        <v>2180</v>
       </c>
       <c r="N67">
-        <f>L67-M67</f>
-        <v>-479</v>
-      </c>
-      <c r="O67">
-        <v>5551</v>
+        <v>10723</v>
       </c>
       <c r="P67">
-        <v>160743</v>
-      </c>
-      <c r="R67">
-        <v>3414</v>
-      </c>
-      <c r="S67">
-        <v>10855</v>
-      </c>
-      <c r="T67">
-        <v>2180</v>
-      </c>
-      <c r="U67">
-        <v>10723</v>
-      </c>
-      <c r="V67">
-        <v>1234</v>
-      </c>
-      <c r="W67">
-        <v>132</v>
-      </c>
-      <c r="Y67">
         <v>86901</v>
       </c>
-      <c r="Z67">
+      <c r="Q67">
         <v>539287</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="R67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -7884,60 +5972,32 @@
         <v>4034</v>
       </c>
       <c r="I68">
-        <v>16546</v>
+        <v>2696</v>
       </c>
       <c r="J68">
-        <v>657186</v>
+        <v>3217</v>
       </c>
       <c r="K68">
-        <f>I68-J68</f>
-        <v>-640640</v>
-      </c>
-      <c r="L68">
-        <v>2696</v>
+        <f t="shared" si="2"/>
+        <v>-521</v>
       </c>
       <c r="M68">
-        <v>3217</v>
+        <v>2585</v>
       </c>
       <c r="N68">
-        <f>L68-M68</f>
-        <v>-521</v>
-      </c>
-      <c r="O68">
-        <v>13850</v>
+        <v>13352</v>
       </c>
       <c r="P68">
-        <v>653969</v>
-      </c>
-      <c r="R68">
-        <v>5820</v>
-      </c>
-      <c r="S68">
-        <v>13604</v>
-      </c>
-      <c r="T68">
-        <v>2585</v>
-      </c>
-      <c r="U68">
-        <v>13352</v>
-      </c>
-      <c r="V68">
-        <v>3235</v>
-      </c>
-      <c r="W68">
-        <v>252</v>
-      </c>
-      <c r="Y68">
         <v>200026</v>
       </c>
-      <c r="Z68">
+      <c r="Q68">
         <v>865339</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="R68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -7963,60 +6023,32 @@
         <v>367</v>
       </c>
       <c r="I69">
-        <v>2585</v>
+        <v>1233</v>
       </c>
       <c r="J69">
-        <v>10786</v>
+        <v>1495</v>
       </c>
       <c r="K69">
-        <f>I69-J69</f>
-        <v>-8201</v>
-      </c>
-      <c r="L69">
-        <v>1233</v>
+        <f t="shared" si="2"/>
+        <v>-262</v>
       </c>
       <c r="M69">
-        <v>1495</v>
+        <v>1136</v>
       </c>
       <c r="N69">
-        <f>L69-M69</f>
-        <v>-262</v>
-      </c>
-      <c r="O69">
-        <v>1352</v>
+        <v>11582</v>
       </c>
       <c r="P69">
-        <v>9291</v>
-      </c>
-      <c r="R69">
-        <v>1360</v>
-      </c>
-      <c r="S69">
-        <v>11607</v>
-      </c>
-      <c r="T69">
-        <v>1136</v>
-      </c>
-      <c r="U69">
-        <v>11582</v>
-      </c>
-      <c r="V69">
-        <v>224</v>
-      </c>
-      <c r="W69">
-        <v>25</v>
-      </c>
-      <c r="Y69">
         <v>34001</v>
       </c>
-      <c r="Z69">
+      <c r="Q69">
         <v>539936</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="R69" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8036,60 +6068,32 @@
         <v>14</v>
       </c>
       <c r="I70">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J70">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="K70">
-        <f>I70-J70</f>
-        <v>-94</v>
-      </c>
-      <c r="L70">
-        <v>117</v>
+        <f t="shared" si="2"/>
+        <v>-35</v>
       </c>
       <c r="M70">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="N70">
-        <f>L70-M70</f>
-        <v>-35</v>
-      </c>
-      <c r="O70">
-        <v>13</v>
+        <v>1357</v>
       </c>
       <c r="P70">
-        <v>72</v>
-      </c>
-      <c r="R70">
-        <v>110</v>
-      </c>
-      <c r="S70">
-        <v>1364</v>
-      </c>
-      <c r="T70">
-        <v>106</v>
-      </c>
-      <c r="U70">
-        <v>1357</v>
-      </c>
-      <c r="V70">
-        <v>4</v>
-      </c>
-      <c r="W70">
-        <v>7</v>
-      </c>
-      <c r="Y70">
         <v>674</v>
       </c>
-      <c r="Z70">
+      <c r="Q70">
         <v>117439</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="R70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8109,60 +6113,32 @@
         <v>2128</v>
       </c>
       <c r="I71">
-        <v>6960</v>
+        <v>2961</v>
       </c>
       <c r="J71">
-        <v>84370</v>
+        <v>3572</v>
       </c>
       <c r="K71">
-        <f>I71-J71</f>
-        <v>-77410</v>
-      </c>
-      <c r="L71">
-        <v>2961</v>
+        <f t="shared" si="2"/>
+        <v>-611</v>
       </c>
       <c r="M71">
-        <v>3572</v>
+        <v>2638</v>
       </c>
       <c r="N71">
-        <f>L71-M71</f>
-        <v>-611</v>
-      </c>
-      <c r="O71">
-        <v>3999</v>
+        <v>8969</v>
       </c>
       <c r="P71">
-        <v>80798</v>
-      </c>
-      <c r="R71">
-        <v>3375</v>
-      </c>
-      <c r="S71">
-        <v>9814</v>
-      </c>
-      <c r="T71">
-        <v>2638</v>
-      </c>
-      <c r="U71">
-        <v>8969</v>
-      </c>
-      <c r="V71">
-        <v>737</v>
-      </c>
-      <c r="W71">
-        <v>845</v>
-      </c>
-      <c r="Y71">
         <v>69908</v>
       </c>
-      <c r="Z71">
+      <c r="Q71">
         <v>543821</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="R71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8182,60 +6158,32 @@
         <v>47</v>
       </c>
       <c r="I72">
-        <v>650</v>
+        <v>486</v>
       </c>
       <c r="J72">
-        <v>3872</v>
+        <v>862</v>
       </c>
       <c r="K72">
-        <f>I72-J72</f>
-        <v>-3222</v>
-      </c>
-      <c r="L72">
-        <v>486</v>
+        <f t="shared" si="2"/>
+        <v>-376</v>
       </c>
       <c r="M72">
-        <v>862</v>
+        <v>448</v>
       </c>
       <c r="N72">
-        <f>L72-M72</f>
-        <v>-376</v>
-      </c>
-      <c r="O72">
-        <v>164</v>
+        <v>4528</v>
       </c>
       <c r="P72">
-        <v>3010</v>
-      </c>
-      <c r="R72">
-        <v>477</v>
-      </c>
-      <c r="S72">
-        <v>4593</v>
-      </c>
-      <c r="T72">
-        <v>448</v>
-      </c>
-      <c r="U72">
-        <v>4528</v>
-      </c>
-      <c r="V72">
-        <v>29</v>
-      </c>
-      <c r="W72">
-        <v>65</v>
-      </c>
-      <c r="Y72">
         <v>3399</v>
       </c>
-      <c r="Z72">
+      <c r="Q72">
         <v>243108</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="R72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8255,60 +6203,32 @@
         <v>7</v>
       </c>
       <c r="I73">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J73">
-        <v>322</v>
+        <v>146</v>
       </c>
       <c r="K73">
-        <f>I73-J73</f>
-        <v>-211</v>
-      </c>
-      <c r="L73">
-        <v>102</v>
+        <f t="shared" si="2"/>
+        <v>-44</v>
       </c>
       <c r="M73">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="N73">
-        <f>L73-M73</f>
-        <v>-44</v>
-      </c>
-      <c r="O73">
-        <v>9</v>
+        <v>1238</v>
       </c>
       <c r="P73">
-        <v>176</v>
-      </c>
-      <c r="R73">
-        <v>95</v>
-      </c>
-      <c r="S73">
-        <v>1239</v>
-      </c>
-      <c r="T73">
-        <v>94</v>
-      </c>
-      <c r="U73">
-        <v>1238</v>
-      </c>
-      <c r="V73">
-        <v>1</v>
-      </c>
-      <c r="W73">
-        <v>1</v>
-      </c>
-      <c r="Y73">
         <v>365</v>
       </c>
-      <c r="Z73">
+      <c r="Q73">
         <v>76832</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="R73" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8328,60 +6248,32 @@
         <v>21</v>
       </c>
       <c r="I74">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="J74">
-        <v>1010</v>
+        <v>408</v>
       </c>
       <c r="K74">
-        <f>I74-J74</f>
-        <v>-805</v>
-      </c>
-      <c r="L74">
-        <v>168</v>
+        <f t="shared" si="2"/>
+        <v>-240</v>
       </c>
       <c r="M74">
-        <v>408</v>
+        <v>108</v>
       </c>
       <c r="N74">
-        <f>L74-M74</f>
-        <v>-240</v>
-      </c>
-      <c r="O74">
-        <v>37</v>
+        <v>2087</v>
       </c>
       <c r="P74">
-        <v>602</v>
-      </c>
-      <c r="R74">
-        <v>111</v>
-      </c>
-      <c r="S74">
-        <v>2093</v>
-      </c>
-      <c r="T74">
-        <v>108</v>
-      </c>
-      <c r="U74">
-        <v>2087</v>
-      </c>
-      <c r="V74">
-        <v>3</v>
-      </c>
-      <c r="W74">
-        <v>6</v>
-      </c>
-      <c r="Y74">
         <v>413</v>
       </c>
-      <c r="Z74">
+      <c r="Q74">
         <v>89734</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="R74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8401,60 +6293,32 @@
         <v>20</v>
       </c>
       <c r="I75">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="J75">
-        <v>1721</v>
+        <v>270</v>
       </c>
       <c r="K75">
-        <f>I75-J75</f>
-        <v>-1561</v>
-      </c>
-      <c r="L75">
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>-164</v>
       </c>
       <c r="M75">
-        <v>270</v>
+        <v>87</v>
       </c>
       <c r="N75">
-        <f>L75-M75</f>
-        <v>-164</v>
-      </c>
-      <c r="O75">
-        <v>54</v>
+        <v>2197</v>
       </c>
       <c r="P75">
-        <v>1451</v>
-      </c>
-      <c r="R75">
-        <v>90</v>
-      </c>
-      <c r="S75">
-        <v>2203</v>
-      </c>
-      <c r="T75">
-        <v>87</v>
-      </c>
-      <c r="U75">
-        <v>2197</v>
-      </c>
-      <c r="V75">
-        <v>3</v>
-      </c>
-      <c r="W75">
-        <v>6</v>
-      </c>
-      <c r="Y75">
         <v>1713</v>
       </c>
-      <c r="Z75">
+      <c r="Q75">
         <v>137865</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="R75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -8480,60 +6344,32 @@
         <v>1109</v>
       </c>
       <c r="I76">
-        <v>9275</v>
+        <v>2087</v>
       </c>
       <c r="J76">
-        <v>31956</v>
+        <v>2376</v>
       </c>
       <c r="K76">
-        <f>I76-J76</f>
-        <v>-22681</v>
-      </c>
-      <c r="L76">
-        <v>2087</v>
+        <f t="shared" si="2"/>
+        <v>-289</v>
       </c>
       <c r="M76">
-        <v>2376</v>
+        <v>2008</v>
       </c>
       <c r="N76">
-        <f>L76-M76</f>
-        <v>-289</v>
-      </c>
-      <c r="O76">
-        <v>7188</v>
+        <v>8519</v>
       </c>
       <c r="P76">
-        <v>29580</v>
-      </c>
-      <c r="R76">
-        <v>3294</v>
-      </c>
-      <c r="S76">
-        <v>8661</v>
-      </c>
-      <c r="T76">
-        <v>2008</v>
-      </c>
-      <c r="U76">
-        <v>8519</v>
-      </c>
-      <c r="V76">
-        <v>1286</v>
-      </c>
-      <c r="W76">
-        <v>142</v>
-      </c>
-      <c r="Y76">
         <v>121739</v>
       </c>
-      <c r="Z76">
+      <c r="Q76">
         <v>394186</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="R76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -8559,60 +6395,32 @@
         <v>1313</v>
       </c>
       <c r="I77">
-        <v>11393</v>
+        <v>3496</v>
       </c>
       <c r="J77">
-        <v>114931</v>
+        <v>3890</v>
       </c>
       <c r="K77">
-        <f>I77-J77</f>
-        <v>-103538</v>
-      </c>
-      <c r="L77">
-        <v>3496</v>
+        <f t="shared" si="2"/>
+        <v>-394</v>
       </c>
       <c r="M77">
-        <v>3890</v>
+        <v>3165</v>
       </c>
       <c r="N77">
-        <f>L77-M77</f>
-        <v>-394</v>
-      </c>
-      <c r="O77">
-        <v>7897</v>
+        <v>1831</v>
       </c>
       <c r="P77">
-        <v>111041</v>
-      </c>
-      <c r="R77">
-        <v>5307</v>
-      </c>
-      <c r="S77">
-        <v>1877</v>
-      </c>
-      <c r="T77">
-        <v>3165</v>
-      </c>
-      <c r="U77">
-        <v>1831</v>
-      </c>
-      <c r="V77">
-        <v>2142</v>
-      </c>
-      <c r="W77">
-        <v>46</v>
-      </c>
-      <c r="Y77">
         <v>53678</v>
       </c>
-      <c r="Z77">
+      <c r="Q77">
         <v>70052</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="R77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8632,60 +6440,32 @@
         <v>41</v>
       </c>
       <c r="I78">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="J78">
-        <v>2741</v>
+        <v>224</v>
       </c>
       <c r="K78">
-        <f>I78-J78</f>
-        <v>-2595</v>
-      </c>
-      <c r="L78">
-        <v>108</v>
+        <f t="shared" si="2"/>
+        <v>-116</v>
       </c>
       <c r="M78">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="N78">
-        <f>L78-M78</f>
-        <v>-116</v>
-      </c>
-      <c r="O78">
-        <v>38</v>
+        <v>2018</v>
       </c>
       <c r="P78">
-        <v>2517</v>
-      </c>
-      <c r="R78">
-        <v>99</v>
-      </c>
-      <c r="S78">
-        <v>2031</v>
-      </c>
-      <c r="T78">
-        <v>92</v>
-      </c>
-      <c r="U78">
-        <v>2018</v>
-      </c>
-      <c r="V78">
-        <v>7</v>
-      </c>
-      <c r="W78">
-        <v>13</v>
-      </c>
-      <c r="Y78">
         <v>1826</v>
       </c>
-      <c r="Z78">
+      <c r="Q78">
         <v>114509</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="R78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -8711,60 +6491,32 @@
         <v>1127</v>
       </c>
       <c r="I79">
-        <v>5290</v>
+        <v>1628</v>
       </c>
       <c r="J79">
-        <v>127405</v>
+        <v>1943</v>
       </c>
       <c r="K79">
-        <f>I79-J79</f>
-        <v>-122115</v>
-      </c>
-      <c r="L79">
-        <v>1628</v>
+        <f t="shared" si="2"/>
+        <v>-315</v>
       </c>
       <c r="M79">
-        <v>1943</v>
+        <v>1534</v>
       </c>
       <c r="N79">
-        <f>L79-M79</f>
-        <v>-315</v>
-      </c>
-      <c r="O79">
-        <v>3662</v>
+        <v>8206</v>
       </c>
       <c r="P79">
-        <v>125462</v>
-      </c>
-      <c r="R79">
-        <v>2474</v>
-      </c>
-      <c r="S79">
-        <v>8261</v>
-      </c>
-      <c r="T79">
-        <v>1534</v>
-      </c>
-      <c r="U79">
-        <v>8206</v>
-      </c>
-      <c r="V79">
-        <v>940</v>
-      </c>
-      <c r="W79">
-        <v>55</v>
-      </c>
-      <c r="Y79">
         <v>82442</v>
       </c>
-      <c r="Z79">
+      <c r="Q79">
         <v>410733</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="R79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8784,60 +6536,32 @@
         <v>88</v>
       </c>
       <c r="I80">
-        <v>444</v>
+        <v>302</v>
       </c>
       <c r="J80">
-        <v>3415</v>
+        <v>345</v>
       </c>
       <c r="K80">
-        <f>I80-J80</f>
-        <v>-2971</v>
-      </c>
-      <c r="L80">
-        <v>302</v>
+        <f t="shared" si="2"/>
+        <v>-43</v>
       </c>
       <c r="M80">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="N80">
-        <f>L80-M80</f>
-        <v>-43</v>
-      </c>
-      <c r="O80">
-        <v>142</v>
+        <v>2016</v>
       </c>
       <c r="P80">
-        <v>3070</v>
-      </c>
-      <c r="R80">
-        <v>301</v>
-      </c>
-      <c r="S80">
-        <v>2024</v>
-      </c>
-      <c r="T80">
-        <v>261</v>
-      </c>
-      <c r="U80">
-        <v>2016</v>
-      </c>
-      <c r="V80">
-        <v>40</v>
-      </c>
-      <c r="W80">
-        <v>8</v>
-      </c>
-      <c r="Y80">
         <v>5738</v>
       </c>
-      <c r="Z80">
+      <c r="Q80">
         <v>61539</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="R80" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -8863,60 +6587,32 @@
         <v>357</v>
       </c>
       <c r="I81">
-        <v>3411</v>
+        <v>1786</v>
       </c>
       <c r="J81">
-        <v>51173</v>
+        <v>2153</v>
       </c>
       <c r="K81">
-        <f>I81-J81</f>
-        <v>-47762</v>
-      </c>
-      <c r="L81">
-        <v>1786</v>
+        <f t="shared" si="2"/>
+        <v>-367</v>
       </c>
       <c r="M81">
-        <v>2153</v>
+        <v>1489</v>
       </c>
       <c r="N81">
-        <f>L81-M81</f>
-        <v>-367</v>
-      </c>
-      <c r="O81">
-        <v>1625</v>
+        <v>7410</v>
       </c>
       <c r="P81">
-        <v>49020</v>
-      </c>
-      <c r="R81">
-        <v>1734</v>
-      </c>
-      <c r="S81">
-        <v>7487</v>
-      </c>
-      <c r="T81">
-        <v>1489</v>
-      </c>
-      <c r="U81">
-        <v>7410</v>
-      </c>
-      <c r="V81">
-        <v>245</v>
-      </c>
-      <c r="W81">
-        <v>77</v>
-      </c>
-      <c r="Y81">
         <v>13826</v>
       </c>
-      <c r="Z81">
+      <c r="Q81">
         <v>329983</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="R81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8936,60 +6632,32 @@
         <v>70</v>
       </c>
       <c r="I82">
-        <v>318</v>
+        <v>201</v>
       </c>
       <c r="J82">
-        <v>3420</v>
+        <v>350</v>
       </c>
       <c r="K82">
-        <f>I82-J82</f>
-        <v>-3102</v>
-      </c>
-      <c r="L82">
-        <v>201</v>
+        <f t="shared" si="2"/>
+        <v>-149</v>
       </c>
       <c r="M82">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="N82">
-        <f>L82-M82</f>
-        <v>-149</v>
-      </c>
-      <c r="O82">
-        <v>117</v>
+        <v>3169</v>
       </c>
       <c r="P82">
-        <v>3070</v>
-      </c>
-      <c r="R82">
-        <v>192</v>
-      </c>
-      <c r="S82">
-        <v>3185</v>
-      </c>
-      <c r="T82">
-        <v>183</v>
-      </c>
-      <c r="U82">
-        <v>3169</v>
-      </c>
-      <c r="V82">
-        <v>9</v>
-      </c>
-      <c r="W82">
-        <v>16</v>
-      </c>
-      <c r="Y82">
         <v>3410</v>
       </c>
-      <c r="Z82">
+      <c r="Q82">
         <v>179611</v>
       </c>
-      <c r="AA82" t="s">
+      <c r="R82" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -9015,60 +6683,32 @@
         <v>19</v>
       </c>
       <c r="I83">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="J83">
-        <v>687</v>
+        <v>351</v>
       </c>
       <c r="K83">
-        <f>I83-J83</f>
-        <v>-393</v>
-      </c>
-      <c r="L83">
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>-101</v>
       </c>
       <c r="M83">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="N83">
-        <f>L83-M83</f>
-        <v>-101</v>
-      </c>
-      <c r="O83">
-        <v>44</v>
+        <v>2314</v>
       </c>
       <c r="P83">
-        <v>336</v>
-      </c>
-      <c r="R83">
-        <v>256</v>
-      </c>
-      <c r="S83">
-        <v>2327</v>
-      </c>
-      <c r="T83">
-        <v>240</v>
-      </c>
-      <c r="U83">
-        <v>2314</v>
-      </c>
-      <c r="V83">
-        <v>16</v>
-      </c>
-      <c r="W83">
-        <v>13</v>
-      </c>
-      <c r="Y83">
         <v>940</v>
       </c>
-      <c r="Z83">
+      <c r="Q83">
         <v>109780</v>
       </c>
-      <c r="AA83" t="s">
+      <c r="R83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9088,60 +6728,32 @@
         <v>12</v>
       </c>
       <c r="I84">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="J84">
-        <v>713</v>
+        <v>243</v>
       </c>
       <c r="K84">
-        <f>I84-J84</f>
-        <v>-477</v>
-      </c>
-      <c r="L84">
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-33</v>
       </c>
       <c r="M84">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="N84">
-        <f>L84-M84</f>
-        <v>-33</v>
-      </c>
-      <c r="O84">
-        <v>26</v>
+        <v>1846</v>
       </c>
       <c r="P84">
-        <v>470</v>
-      </c>
-      <c r="R84">
-        <v>206</v>
-      </c>
-      <c r="S84">
-        <v>1854</v>
-      </c>
-      <c r="T84">
-        <v>200</v>
-      </c>
-      <c r="U84">
-        <v>1846</v>
-      </c>
-      <c r="V84">
-        <v>6</v>
-      </c>
-      <c r="W84">
-        <v>8</v>
-      </c>
-      <c r="Y84">
         <v>1136</v>
       </c>
-      <c r="Z84">
+      <c r="Q84">
         <v>124435</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="R84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9161,60 +6773,32 @@
         <v>26</v>
       </c>
       <c r="I85">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="J85">
-        <v>2221</v>
+        <v>270</v>
       </c>
       <c r="K85">
-        <f>I85-J85</f>
-        <v>-2050</v>
-      </c>
-      <c r="L85">
-        <v>146</v>
+        <f t="shared" si="2"/>
+        <v>-124</v>
       </c>
       <c r="M85">
-        <v>270</v>
+        <v>124</v>
       </c>
       <c r="N85">
-        <f>L85-M85</f>
-        <v>-124</v>
-      </c>
-      <c r="O85">
-        <v>25</v>
+        <v>2916</v>
       </c>
       <c r="P85">
-        <v>1951</v>
-      </c>
-      <c r="R85">
-        <v>128</v>
-      </c>
-      <c r="S85">
-        <v>2924</v>
-      </c>
-      <c r="T85">
-        <v>124</v>
-      </c>
-      <c r="U85">
-        <v>2916</v>
-      </c>
-      <c r="V85">
-        <v>4</v>
-      </c>
-      <c r="W85">
-        <v>8</v>
-      </c>
-      <c r="Y85">
         <v>1529</v>
       </c>
-      <c r="Z85">
+      <c r="Q85">
         <v>213185</v>
       </c>
-      <c r="AA85" t="s">
+      <c r="R85" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9234,60 +6818,32 @@
         <v>1729</v>
       </c>
       <c r="I86">
-        <v>2277</v>
+        <v>1470</v>
       </c>
       <c r="J86">
-        <v>16772</v>
+        <v>2294</v>
       </c>
       <c r="K86">
-        <f>I86-J86</f>
-        <v>-14495</v>
-      </c>
-      <c r="L86">
-        <v>1470</v>
+        <f t="shared" si="2"/>
+        <v>-824</v>
       </c>
       <c r="M86">
-        <v>2294</v>
+        <v>1177</v>
       </c>
       <c r="N86">
-        <f>L86-M86</f>
-        <v>-824</v>
-      </c>
-      <c r="O86">
-        <v>807</v>
+        <v>12010</v>
       </c>
       <c r="P86">
-        <v>14478</v>
-      </c>
-      <c r="R86">
-        <v>1340</v>
-      </c>
-      <c r="S86">
-        <v>12162</v>
-      </c>
-      <c r="T86">
-        <v>1177</v>
-      </c>
-      <c r="U86">
-        <v>12010</v>
-      </c>
-      <c r="V86">
-        <v>163</v>
-      </c>
-      <c r="W86">
-        <v>152</v>
-      </c>
-      <c r="Y86">
         <v>6924</v>
       </c>
-      <c r="Z86">
+      <c r="Q86">
         <v>690973</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="R86" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9307,60 +6863,32 @@
         <v>91</v>
       </c>
       <c r="I87">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J87">
-        <v>2153</v>
+        <v>179</v>
       </c>
       <c r="K87">
-        <f>I87-J87</f>
-        <v>-2027</v>
-      </c>
-      <c r="L87">
-        <v>119</v>
+        <f t="shared" si="2"/>
+        <v>-60</v>
       </c>
       <c r="M87">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="N87">
-        <f>L87-M87</f>
-        <v>-60</v>
-      </c>
-      <c r="O87">
-        <v>7</v>
+        <v>1767</v>
       </c>
       <c r="P87">
-        <v>1974</v>
-      </c>
-      <c r="R87">
-        <v>101</v>
-      </c>
-      <c r="S87">
-        <v>1774</v>
-      </c>
-      <c r="T87">
-        <v>97</v>
-      </c>
-      <c r="U87">
-        <v>1767</v>
-      </c>
-      <c r="V87">
-        <v>4</v>
-      </c>
-      <c r="W87">
-        <v>7</v>
-      </c>
-      <c r="Y87">
         <v>2915</v>
       </c>
-      <c r="Z87">
+      <c r="Q87">
         <v>139956</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="R87" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -9386,60 +6914,32 @@
         <v>650</v>
       </c>
       <c r="I88">
-        <v>4255</v>
+        <v>1620</v>
       </c>
       <c r="J88">
-        <v>14395</v>
+        <v>1926</v>
       </c>
       <c r="K88">
-        <f>I88-J88</f>
-        <v>-10140</v>
-      </c>
-      <c r="L88">
-        <v>1620</v>
+        <f t="shared" si="2"/>
+        <v>-306</v>
       </c>
       <c r="M88">
-        <v>1926</v>
+        <v>1518</v>
       </c>
       <c r="N88">
-        <f>L88-M88</f>
-        <v>-306</v>
-      </c>
-      <c r="O88">
-        <v>2635</v>
+        <v>15055</v>
       </c>
       <c r="P88">
-        <v>12469</v>
-      </c>
-      <c r="R88">
-        <v>1982</v>
-      </c>
-      <c r="S88">
-        <v>15112</v>
-      </c>
-      <c r="T88">
-        <v>1518</v>
-      </c>
-      <c r="U88">
-        <v>15055</v>
-      </c>
-      <c r="V88">
-        <v>464</v>
-      </c>
-      <c r="W88">
-        <v>57</v>
-      </c>
-      <c r="Y88">
         <v>63051</v>
       </c>
-      <c r="Z88">
+      <c r="Q88">
         <v>670873</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="R88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9459,60 +6959,32 @@
         <v>39</v>
       </c>
       <c r="I89">
-        <v>704</v>
+        <v>496</v>
       </c>
       <c r="J89">
-        <v>2570</v>
+        <v>751</v>
       </c>
       <c r="K89">
-        <f>I89-J89</f>
-        <v>-1866</v>
-      </c>
-      <c r="L89">
-        <v>496</v>
+        <f t="shared" si="2"/>
+        <v>-255</v>
       </c>
       <c r="M89">
-        <v>751</v>
+        <v>445</v>
       </c>
       <c r="N89">
-        <f>L89-M89</f>
-        <v>-255</v>
-      </c>
-      <c r="O89">
-        <v>208</v>
+        <v>4054</v>
       </c>
       <c r="P89">
-        <v>1819</v>
-      </c>
-      <c r="R89">
-        <v>475</v>
-      </c>
-      <c r="S89">
-        <v>4103</v>
-      </c>
-      <c r="T89">
-        <v>445</v>
-      </c>
-      <c r="U89">
-        <v>4054</v>
-      </c>
-      <c r="V89">
-        <v>30</v>
-      </c>
-      <c r="W89">
-        <v>49</v>
-      </c>
-      <c r="Y89">
         <v>2314</v>
       </c>
-      <c r="Z89">
+      <c r="Q89">
         <v>227098</v>
       </c>
-      <c r="AA89" t="s">
+      <c r="R89" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -9538,60 +7010,32 @@
         <v>769</v>
       </c>
       <c r="I90">
-        <v>3689</v>
+        <v>1455</v>
       </c>
       <c r="J90">
-        <v>67951</v>
+        <v>1758</v>
       </c>
       <c r="K90">
-        <f>I90-J90</f>
-        <v>-64262</v>
-      </c>
-      <c r="L90">
-        <v>1455</v>
+        <f t="shared" si="2"/>
+        <v>-303</v>
       </c>
       <c r="M90">
-        <v>1758</v>
+        <v>1325</v>
       </c>
       <c r="N90">
-        <f>L90-M90</f>
-        <v>-303</v>
-      </c>
-      <c r="O90">
-        <v>2234</v>
+        <v>13303</v>
       </c>
       <c r="P90">
-        <v>66193</v>
-      </c>
-      <c r="R90">
-        <v>1798</v>
-      </c>
-      <c r="S90">
-        <v>13405</v>
-      </c>
-      <c r="T90">
-        <v>1325</v>
-      </c>
-      <c r="U90">
-        <v>13303</v>
-      </c>
-      <c r="V90">
-        <v>473</v>
-      </c>
-      <c r="W90">
-        <v>102</v>
-      </c>
-      <c r="Y90">
         <v>27834</v>
       </c>
-      <c r="Z90">
+      <c r="Q90">
         <v>722040</v>
       </c>
-      <c r="AA90" t="s">
+      <c r="R90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9611,60 +7055,32 @@
         <v>23</v>
       </c>
       <c r="I91">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="J91">
-        <v>1343</v>
+        <v>406</v>
       </c>
       <c r="K91">
-        <f>I91-J91</f>
-        <v>-1034</v>
-      </c>
-      <c r="L91">
-        <v>227</v>
+        <f t="shared" si="2"/>
+        <v>-179</v>
       </c>
       <c r="M91">
-        <v>406</v>
+        <v>191</v>
       </c>
       <c r="N91">
-        <f>L91-M91</f>
-        <v>-179</v>
-      </c>
-      <c r="O91">
-        <v>82</v>
+        <v>2242</v>
       </c>
       <c r="P91">
-        <v>937</v>
-      </c>
-      <c r="R91">
-        <v>202</v>
-      </c>
-      <c r="S91">
-        <v>2268</v>
-      </c>
-      <c r="T91">
-        <v>191</v>
-      </c>
-      <c r="U91">
-        <v>2242</v>
-      </c>
-      <c r="V91">
-        <v>11</v>
-      </c>
-      <c r="W91">
-        <v>26</v>
-      </c>
-      <c r="Y91">
         <v>946</v>
       </c>
-      <c r="Z91">
+      <c r="Q91">
         <v>94805</v>
       </c>
-      <c r="AA91" t="s">
+      <c r="R91" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -9687,60 +7103,32 @@
         <v>1095</v>
       </c>
       <c r="I92">
-        <v>5776</v>
+        <v>2375</v>
       </c>
       <c r="J92">
-        <v>91876</v>
+        <v>2560</v>
       </c>
       <c r="K92">
-        <f>I92-J92</f>
-        <v>-86100</v>
-      </c>
-      <c r="L92">
-        <v>2375</v>
+        <f t="shared" si="2"/>
+        <v>-185</v>
       </c>
       <c r="M92">
-        <v>2560</v>
+        <v>1995</v>
       </c>
       <c r="N92">
-        <f>L92-M92</f>
-        <v>-185</v>
-      </c>
-      <c r="O92">
-        <v>3401</v>
+        <v>9088</v>
       </c>
       <c r="P92">
-        <v>89316</v>
-      </c>
-      <c r="R92">
-        <v>2848</v>
-      </c>
-      <c r="S92">
-        <v>9184</v>
-      </c>
-      <c r="T92">
-        <v>1995</v>
-      </c>
-      <c r="U92">
-        <v>9088</v>
-      </c>
-      <c r="V92">
-        <v>853</v>
-      </c>
-      <c r="W92">
-        <v>96</v>
-      </c>
-      <c r="Y92">
         <v>32160</v>
       </c>
-      <c r="Z92">
+      <c r="Q92">
         <v>359733</v>
       </c>
-      <c r="AA92" t="s">
+      <c r="R92" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9760,60 +7148,32 @@
         <v>60</v>
       </c>
       <c r="I93">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="J93">
-        <v>2341</v>
+        <v>211</v>
       </c>
       <c r="K93">
-        <f>I93-J93</f>
-        <v>-2093</v>
-      </c>
-      <c r="L93">
-        <v>178</v>
+        <f t="shared" si="2"/>
+        <v>-33</v>
       </c>
       <c r="M93">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="N93">
-        <f>L93-M93</f>
-        <v>-33</v>
-      </c>
-      <c r="O93">
-        <v>70</v>
+        <v>1578</v>
       </c>
       <c r="P93">
-        <v>2130</v>
-      </c>
-      <c r="R93">
-        <v>189</v>
-      </c>
-      <c r="S93">
-        <v>1586</v>
-      </c>
-      <c r="T93">
-        <v>167</v>
-      </c>
-      <c r="U93">
-        <v>1578</v>
-      </c>
-      <c r="V93">
-        <v>22</v>
-      </c>
-      <c r="W93">
-        <v>8</v>
-      </c>
-      <c r="Y93">
         <v>5165</v>
       </c>
-      <c r="Z93">
+      <c r="Q93">
         <v>73834</v>
       </c>
-      <c r="AA93" t="s">
+      <c r="R93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -9839,60 +7199,32 @@
         <v>864</v>
       </c>
       <c r="I94">
-        <v>1834</v>
+        <v>564</v>
       </c>
       <c r="J94">
-        <v>51239</v>
+        <v>1139</v>
       </c>
       <c r="K94">
-        <f>I94-J94</f>
-        <v>-49405</v>
-      </c>
-      <c r="L94">
-        <v>564</v>
+        <f t="shared" si="2"/>
+        <v>-575</v>
       </c>
       <c r="M94">
-        <v>1139</v>
+        <v>519</v>
       </c>
       <c r="N94">
-        <f>L94-M94</f>
-        <v>-575</v>
-      </c>
-      <c r="O94">
-        <v>1270</v>
+        <v>7799</v>
       </c>
       <c r="P94">
-        <v>50100</v>
-      </c>
-      <c r="R94">
-        <v>695</v>
-      </c>
-      <c r="S94">
-        <v>7995</v>
-      </c>
-      <c r="T94">
-        <v>519</v>
-      </c>
-      <c r="U94">
-        <v>7799</v>
-      </c>
-      <c r="V94">
-        <v>176</v>
-      </c>
-      <c r="W94">
-        <v>196</v>
-      </c>
-      <c r="Y94">
         <v>38309</v>
       </c>
-      <c r="Z94">
+      <c r="Q94">
         <v>333666</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="R94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9912,60 +7244,32 @@
         <v>43</v>
       </c>
       <c r="I95">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="J95">
-        <v>2807</v>
+        <v>161</v>
       </c>
       <c r="K95">
-        <f>I95-J95</f>
-        <v>-2658</v>
-      </c>
-      <c r="L95">
-        <v>76</v>
+        <f t="shared" si="2"/>
+        <v>-85</v>
       </c>
       <c r="M95">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="N95">
-        <f>L95-M95</f>
-        <v>-85</v>
-      </c>
-      <c r="O95">
-        <v>73</v>
+        <v>1333</v>
       </c>
       <c r="P95">
-        <v>2646</v>
-      </c>
-      <c r="R95">
-        <v>86</v>
-      </c>
-      <c r="S95">
-        <v>1345</v>
-      </c>
-      <c r="T95">
-        <v>74</v>
-      </c>
-      <c r="U95">
-        <v>1333</v>
-      </c>
-      <c r="V95">
-        <v>12</v>
-      </c>
-      <c r="W95">
-        <v>12</v>
-      </c>
-      <c r="Y95">
         <v>2129</v>
       </c>
-      <c r="Z95">
+      <c r="Q95">
         <v>70621</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="R95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -9991,60 +7295,32 @@
         <v>7595</v>
       </c>
       <c r="I96">
-        <v>36958</v>
+        <v>5963</v>
       </c>
       <c r="J96">
-        <v>1069515</v>
+        <v>6743</v>
       </c>
       <c r="K96">
-        <f>I96-J96</f>
-        <v>-1032557</v>
-      </c>
-      <c r="L96">
-        <v>5963</v>
+        <f t="shared" si="2"/>
+        <v>-780</v>
       </c>
       <c r="M96">
-        <v>6743</v>
+        <v>5764</v>
       </c>
       <c r="N96">
-        <f>L96-M96</f>
-        <v>-780</v>
-      </c>
-      <c r="O96">
-        <v>30995</v>
+        <v>31579</v>
       </c>
       <c r="P96">
-        <v>1062772</v>
-      </c>
-      <c r="R96">
-        <v>12237</v>
-      </c>
-      <c r="S96">
-        <v>32098</v>
-      </c>
-      <c r="T96">
-        <v>5764</v>
-      </c>
-      <c r="U96">
-        <v>31579</v>
-      </c>
-      <c r="V96">
-        <v>6473</v>
-      </c>
-      <c r="W96">
-        <v>519</v>
-      </c>
-      <c r="Y96">
         <v>424715</v>
       </c>
-      <c r="Z96">
+      <c r="Q96">
         <v>1561881</v>
       </c>
-      <c r="AA96" t="s">
+      <c r="R96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10064,60 +7340,32 @@
         <v>39</v>
       </c>
       <c r="I97">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="J97">
-        <v>1013</v>
+        <v>380</v>
       </c>
       <c r="K97">
-        <f>I97-J97</f>
-        <v>-644</v>
-      </c>
-      <c r="L97">
-        <v>319</v>
+        <f t="shared" si="2"/>
+        <v>-61</v>
       </c>
       <c r="M97">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="N97">
-        <f>L97-M97</f>
-        <v>-61</v>
-      </c>
-      <c r="O97">
-        <v>50</v>
+        <v>2924</v>
       </c>
       <c r="P97">
-        <v>633</v>
-      </c>
-      <c r="R97">
-        <v>303</v>
-      </c>
-      <c r="S97">
-        <v>2936</v>
-      </c>
-      <c r="T97">
-        <v>294</v>
-      </c>
-      <c r="U97">
-        <v>2924</v>
-      </c>
-      <c r="V97">
-        <v>9</v>
-      </c>
-      <c r="W97">
-        <v>12</v>
-      </c>
-      <c r="Y97">
         <v>2109</v>
       </c>
-      <c r="Z97">
+      <c r="Q97">
         <v>199412</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="R97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -10143,60 +7391,32 @@
         <v>116</v>
       </c>
       <c r="I98">
-        <v>1406</v>
+        <v>594</v>
       </c>
       <c r="J98">
-        <v>14103</v>
+        <v>777</v>
       </c>
       <c r="K98">
-        <f>I98-J98</f>
-        <v>-12697</v>
-      </c>
-      <c r="L98">
-        <v>594</v>
+        <f t="shared" ref="K98:K129" si="3">I98-J98</f>
+        <v>-183</v>
       </c>
       <c r="M98">
-        <v>777</v>
+        <v>490</v>
       </c>
       <c r="N98">
-        <f>L98-M98</f>
-        <v>-183</v>
-      </c>
-      <c r="O98">
-        <v>812</v>
+        <v>1514</v>
       </c>
       <c r="P98">
-        <v>13326</v>
-      </c>
-      <c r="R98">
-        <v>634</v>
-      </c>
-      <c r="S98">
-        <v>1573</v>
-      </c>
-      <c r="T98">
-        <v>490</v>
-      </c>
-      <c r="U98">
-        <v>1514</v>
-      </c>
-      <c r="V98">
-        <v>144</v>
-      </c>
-      <c r="W98">
-        <v>59</v>
-      </c>
-      <c r="Y98">
         <v>5283</v>
       </c>
-      <c r="Z98">
+      <c r="Q98">
         <v>158540</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="R98" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -10219,60 +7439,32 @@
         <v>4040</v>
       </c>
       <c r="I99">
-        <v>20413</v>
+        <v>4513</v>
       </c>
       <c r="J99">
-        <v>462230</v>
+        <v>5091</v>
       </c>
       <c r="K99">
-        <f>I99-J99</f>
-        <v>-441817</v>
-      </c>
-      <c r="L99">
-        <v>4513</v>
+        <f t="shared" si="3"/>
+        <v>-578</v>
       </c>
       <c r="M99">
-        <v>5091</v>
+        <v>4173</v>
       </c>
       <c r="N99">
-        <f>L99-M99</f>
-        <v>-578</v>
-      </c>
-      <c r="O99">
-        <v>15900</v>
+        <v>27735</v>
       </c>
       <c r="P99">
-        <v>457139</v>
-      </c>
-      <c r="R99">
-        <v>7530</v>
-      </c>
-      <c r="S99">
-        <v>28121</v>
-      </c>
-      <c r="T99">
-        <v>4173</v>
-      </c>
-      <c r="U99">
-        <v>27735</v>
-      </c>
-      <c r="V99">
-        <v>3357</v>
-      </c>
-      <c r="W99">
-        <v>386</v>
-      </c>
-      <c r="Y99">
         <v>222146</v>
       </c>
-      <c r="Z99">
+      <c r="Q99">
         <v>1359964</v>
       </c>
-      <c r="AA99" t="s">
+      <c r="R99" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10292,60 +7484,32 @@
         <v>31</v>
       </c>
       <c r="I100">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="J100">
-        <v>1020</v>
+        <v>147</v>
       </c>
       <c r="K100">
-        <f>I100-J100</f>
-        <v>-841</v>
-      </c>
-      <c r="L100">
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>-41</v>
       </c>
       <c r="M100">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="N100">
-        <f>L100-M100</f>
-        <v>-41</v>
-      </c>
-      <c r="O100">
-        <v>73</v>
+        <v>1346</v>
       </c>
       <c r="P100">
-        <v>873</v>
-      </c>
-      <c r="R100">
-        <v>119</v>
-      </c>
-      <c r="S100">
-        <v>1349</v>
-      </c>
-      <c r="T100">
-        <v>98</v>
-      </c>
-      <c r="U100">
-        <v>1346</v>
-      </c>
-      <c r="V100">
-        <v>21</v>
-      </c>
-      <c r="W100">
-        <v>3</v>
-      </c>
-      <c r="Y100">
         <v>2257</v>
       </c>
-      <c r="Z100">
+      <c r="Q100">
         <v>80604</v>
       </c>
-      <c r="AA100" t="s">
+      <c r="R100" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -10371,60 +7535,32 @@
         <v>238</v>
       </c>
       <c r="I101">
-        <v>530</v>
+        <v>438</v>
       </c>
       <c r="J101">
-        <v>8167</v>
+        <v>601</v>
       </c>
       <c r="K101">
-        <f>I101-J101</f>
-        <v>-7637</v>
-      </c>
-      <c r="L101">
-        <v>438</v>
+        <f t="shared" si="3"/>
+        <v>-163</v>
       </c>
       <c r="M101">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="N101">
-        <f>L101-M101</f>
-        <v>-163</v>
-      </c>
-      <c r="O101">
-        <v>92</v>
+        <v>4407</v>
       </c>
       <c r="P101">
-        <v>7566</v>
-      </c>
-      <c r="R101">
-        <v>368</v>
-      </c>
-      <c r="S101">
-        <v>4417</v>
-      </c>
-      <c r="T101">
-        <v>357</v>
-      </c>
-      <c r="U101">
-        <v>4407</v>
-      </c>
-      <c r="V101">
-        <v>11</v>
-      </c>
-      <c r="W101">
-        <v>10</v>
-      </c>
-      <c r="Y101">
         <v>7526</v>
       </c>
-      <c r="Z101">
+      <c r="Q101">
         <v>283033</v>
       </c>
-      <c r="AA101" t="s">
+      <c r="R101" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -10450,60 +7586,32 @@
         <v>5325</v>
       </c>
       <c r="I102">
-        <v>23237</v>
+        <v>2760</v>
       </c>
       <c r="J102">
-        <v>270637</v>
+        <v>3196</v>
       </c>
       <c r="K102">
-        <f>I102-J102</f>
-        <v>-247400</v>
-      </c>
-      <c r="L102">
-        <v>2760</v>
+        <f t="shared" si="3"/>
+        <v>-436</v>
       </c>
       <c r="M102">
-        <v>3196</v>
+        <v>2603</v>
       </c>
       <c r="N102">
-        <f>L102-M102</f>
-        <v>-436</v>
-      </c>
-      <c r="O102">
-        <v>20477</v>
+        <v>16439</v>
       </c>
       <c r="P102">
-        <v>267441</v>
-      </c>
-      <c r="R102">
-        <v>5725</v>
-      </c>
-      <c r="S102">
-        <v>16731</v>
-      </c>
-      <c r="T102">
-        <v>2603</v>
-      </c>
-      <c r="U102">
-        <v>16439</v>
-      </c>
-      <c r="V102">
-        <v>3122</v>
-      </c>
-      <c r="W102">
-        <v>292</v>
-      </c>
-      <c r="Y102">
         <v>360871</v>
       </c>
-      <c r="Z102">
+      <c r="Q102">
         <v>500399</v>
       </c>
-      <c r="AA102" t="s">
+      <c r="R102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -10529,60 +7637,32 @@
         <v>977</v>
       </c>
       <c r="I103">
-        <v>9495</v>
+        <v>4257</v>
       </c>
       <c r="J103">
-        <v>109650</v>
+        <v>4976</v>
       </c>
       <c r="K103">
-        <f>I103-J103</f>
-        <v>-100155</v>
-      </c>
-      <c r="L103">
-        <v>4257</v>
+        <f t="shared" si="3"/>
+        <v>-719</v>
       </c>
       <c r="M103">
-        <v>4976</v>
+        <v>3749</v>
       </c>
       <c r="N103">
-        <f>L103-M103</f>
-        <v>-719</v>
-      </c>
-      <c r="O103">
-        <v>5238</v>
+        <v>11752</v>
       </c>
       <c r="P103">
-        <v>104674</v>
-      </c>
-      <c r="R103">
-        <v>4465</v>
-      </c>
-      <c r="S103">
-        <v>11954</v>
-      </c>
-      <c r="T103">
-        <v>3749</v>
-      </c>
-      <c r="U103">
-        <v>11752</v>
-      </c>
-      <c r="V103">
-        <v>716</v>
-      </c>
-      <c r="W103">
-        <v>202</v>
-      </c>
-      <c r="Y103">
         <v>36654</v>
       </c>
-      <c r="Z103">
+      <c r="Q103">
         <v>599999</v>
       </c>
-      <c r="AA103" t="s">
+      <c r="R103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -10608,60 +7688,32 @@
         <v>11</v>
       </c>
       <c r="I104">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="J104">
-        <v>736</v>
+        <v>130</v>
       </c>
       <c r="K104">
-        <f>I104-J104</f>
-        <v>-638</v>
-      </c>
-      <c r="L104">
-        <v>76</v>
+        <f t="shared" si="3"/>
+        <v>-54</v>
       </c>
       <c r="M104">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="N104">
-        <f>L104-M104</f>
-        <v>-54</v>
-      </c>
-      <c r="O104">
-        <v>22</v>
+        <v>697</v>
       </c>
       <c r="P104">
-        <v>606</v>
-      </c>
-      <c r="R104">
-        <v>75</v>
-      </c>
-      <c r="S104">
-        <v>698</v>
-      </c>
-      <c r="T104">
-        <v>66</v>
-      </c>
-      <c r="U104">
-        <v>697</v>
-      </c>
-      <c r="V104">
-        <v>9</v>
-      </c>
-      <c r="W104">
-        <v>1</v>
-      </c>
-      <c r="Y104">
         <v>421</v>
       </c>
-      <c r="Z104">
+      <c r="Q104">
         <v>26523</v>
       </c>
-      <c r="AA104" t="s">
+      <c r="R104" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10681,60 +7733,32 @@
         <v>30</v>
       </c>
       <c r="I105">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="J105">
-        <v>1932</v>
+        <v>115</v>
       </c>
       <c r="K105">
-        <f>I105-J105</f>
-        <v>-1851</v>
-      </c>
-      <c r="L105">
-        <v>39</v>
+        <f t="shared" si="3"/>
+        <v>-76</v>
       </c>
       <c r="M105">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="N105">
-        <f>L105-M105</f>
-        <v>-76</v>
-      </c>
-      <c r="O105">
-        <v>42</v>
+        <v>1024</v>
       </c>
       <c r="P105">
-        <v>1817</v>
-      </c>
-      <c r="R105">
-        <v>44</v>
-      </c>
-      <c r="S105">
-        <v>1031</v>
-      </c>
-      <c r="T105">
-        <v>37</v>
-      </c>
-      <c r="U105">
-        <v>1024</v>
-      </c>
-      <c r="V105">
-        <v>7</v>
-      </c>
-      <c r="W105">
-        <v>7</v>
-      </c>
-      <c r="Y105">
         <v>1525</v>
       </c>
-      <c r="Z105">
+      <c r="Q105">
         <v>53879</v>
       </c>
-      <c r="AA105" t="s">
+      <c r="R105" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10754,60 +7778,32 @@
         <v>44</v>
       </c>
       <c r="I106">
-        <v>625</v>
+        <v>451</v>
       </c>
       <c r="J106">
-        <v>3474</v>
+        <v>901</v>
       </c>
       <c r="K106">
-        <f>I106-J106</f>
-        <v>-2849</v>
-      </c>
-      <c r="L106">
-        <v>451</v>
+        <f t="shared" si="3"/>
+        <v>-450</v>
       </c>
       <c r="M106">
-        <v>901</v>
+        <v>406</v>
       </c>
       <c r="N106">
-        <f>L106-M106</f>
-        <v>-450</v>
-      </c>
-      <c r="O106">
-        <v>174</v>
+        <v>4680</v>
       </c>
       <c r="P106">
-        <v>2573</v>
-      </c>
-      <c r="R106">
-        <v>442</v>
-      </c>
-      <c r="S106">
-        <v>4741</v>
-      </c>
-      <c r="T106">
-        <v>406</v>
-      </c>
-      <c r="U106">
-        <v>4680</v>
-      </c>
-      <c r="V106">
-        <v>36</v>
-      </c>
-      <c r="W106">
-        <v>61</v>
-      </c>
-      <c r="Y106">
         <v>2553</v>
       </c>
-      <c r="Z106">
+      <c r="Q106">
         <v>245187</v>
       </c>
-      <c r="AA106" t="s">
+      <c r="R106" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -10833,60 +7829,32 @@
         <v>526</v>
       </c>
       <c r="I107">
-        <v>4380</v>
+        <v>1570</v>
       </c>
       <c r="J107">
-        <v>10457</v>
+        <v>1786</v>
       </c>
       <c r="K107">
-        <f>I107-J107</f>
-        <v>-6077</v>
-      </c>
-      <c r="L107">
-        <v>1570</v>
+        <f t="shared" si="3"/>
+        <v>-216</v>
       </c>
       <c r="M107">
-        <v>1786</v>
+        <v>1485</v>
       </c>
       <c r="N107">
-        <f>L107-M107</f>
-        <v>-216</v>
-      </c>
-      <c r="O107">
-        <v>2810</v>
+        <v>13872</v>
       </c>
       <c r="P107">
-        <v>8671</v>
-      </c>
-      <c r="R107">
-        <v>1836</v>
-      </c>
-      <c r="S107">
-        <v>13905</v>
-      </c>
-      <c r="T107">
-        <v>1485</v>
-      </c>
-      <c r="U107">
-        <v>13872</v>
-      </c>
-      <c r="V107">
-        <v>351</v>
-      </c>
-      <c r="W107">
-        <v>33</v>
-      </c>
-      <c r="Y107">
         <v>58039</v>
       </c>
-      <c r="Z107">
+      <c r="Q107">
         <v>534825</v>
       </c>
-      <c r="AA107" t="s">
+      <c r="R107" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -10912,60 +7880,32 @@
         <v>39</v>
       </c>
       <c r="I108">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J108">
-        <v>2571</v>
+        <v>297</v>
       </c>
       <c r="K108">
-        <f>I108-J108</f>
-        <v>-2365</v>
-      </c>
-      <c r="L108">
-        <v>178</v>
+        <f t="shared" si="3"/>
+        <v>-119</v>
       </c>
       <c r="M108">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="N108">
-        <f>L108-M108</f>
-        <v>-119</v>
-      </c>
-      <c r="O108">
-        <v>28</v>
+        <v>1376</v>
       </c>
       <c r="P108">
-        <v>2274</v>
-      </c>
-      <c r="R108">
-        <v>151</v>
-      </c>
-      <c r="S108">
-        <v>1382</v>
-      </c>
-      <c r="T108">
-        <v>145</v>
-      </c>
-      <c r="U108">
-        <v>1376</v>
-      </c>
-      <c r="V108">
-        <v>6</v>
-      </c>
-      <c r="W108">
-        <v>6</v>
-      </c>
-      <c r="Y108">
         <v>2139</v>
       </c>
-      <c r="Z108">
+      <c r="Q108">
         <v>57638</v>
       </c>
-      <c r="AA108" t="s">
+      <c r="R108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10985,60 +7925,32 @@
         <v>47</v>
       </c>
       <c r="I109">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="J109">
-        <v>1557</v>
+        <v>178</v>
       </c>
       <c r="K109">
-        <f>I109-J109</f>
-        <v>-1394</v>
-      </c>
-      <c r="L109">
-        <v>83</v>
+        <f t="shared" si="3"/>
+        <v>-95</v>
       </c>
       <c r="M109">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="N109">
-        <f>L109-M109</f>
-        <v>-95</v>
-      </c>
-      <c r="O109">
-        <v>80</v>
+        <v>1513</v>
       </c>
       <c r="P109">
-        <v>1379</v>
-      </c>
-      <c r="R109">
-        <v>80</v>
-      </c>
-      <c r="S109">
-        <v>1524</v>
-      </c>
-      <c r="T109">
-        <v>74</v>
-      </c>
-      <c r="U109">
-        <v>1513</v>
-      </c>
-      <c r="V109">
-        <v>6</v>
-      </c>
-      <c r="W109">
-        <v>11</v>
-      </c>
-      <c r="Y109">
         <v>2172</v>
       </c>
-      <c r="Z109">
+      <c r="Q109">
         <v>78513</v>
       </c>
-      <c r="AA109" t="s">
+      <c r="R109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11058,60 +7970,32 @@
         <v>25</v>
       </c>
       <c r="I110">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="J110">
-        <v>1529</v>
+        <v>463</v>
       </c>
       <c r="K110">
-        <f>I110-J110</f>
-        <v>-1130</v>
-      </c>
-      <c r="L110">
-        <v>303</v>
+        <f t="shared" si="3"/>
+        <v>-160</v>
       </c>
       <c r="M110">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="N110">
-        <f>L110-M110</f>
-        <v>-160</v>
-      </c>
-      <c r="O110">
-        <v>96</v>
+        <v>2529</v>
       </c>
       <c r="P110">
-        <v>1066</v>
-      </c>
-      <c r="R110">
-        <v>271</v>
-      </c>
-      <c r="S110">
-        <v>2551</v>
-      </c>
-      <c r="T110">
-        <v>259</v>
-      </c>
-      <c r="U110">
-        <v>2529</v>
-      </c>
-      <c r="V110">
-        <v>12</v>
-      </c>
-      <c r="W110">
-        <v>22</v>
-      </c>
-      <c r="Y110">
         <v>1277</v>
       </c>
-      <c r="Z110">
+      <c r="Q110">
         <v>130169</v>
       </c>
-      <c r="AA110" t="s">
+      <c r="R110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11131,60 +8015,32 @@
         <v>61</v>
       </c>
       <c r="I111">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="J111">
-        <v>2612</v>
+        <v>143</v>
       </c>
       <c r="K111">
-        <f>I111-J111</f>
-        <v>-2507</v>
-      </c>
-      <c r="L111">
-        <v>53</v>
+        <f t="shared" si="3"/>
+        <v>-90</v>
       </c>
       <c r="M111">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="N111">
-        <f>L111-M111</f>
-        <v>-90</v>
-      </c>
-      <c r="O111">
-        <v>52</v>
+        <v>1161</v>
       </c>
       <c r="P111">
-        <v>2469</v>
-      </c>
-      <c r="R111">
-        <v>56</v>
-      </c>
-      <c r="S111">
-        <v>1172</v>
-      </c>
-      <c r="T111">
-        <v>48</v>
-      </c>
-      <c r="U111">
-        <v>1161</v>
-      </c>
-      <c r="V111">
-        <v>8</v>
-      </c>
-      <c r="W111">
-        <v>11</v>
-      </c>
-      <c r="Y111">
         <v>2082</v>
       </c>
-      <c r="Z111">
+      <c r="Q111">
         <v>61967</v>
       </c>
-      <c r="AA111" t="s">
+      <c r="R111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -11210,60 +8066,32 @@
         <v>76</v>
       </c>
       <c r="I112">
-        <v>1470</v>
+        <v>848</v>
       </c>
       <c r="J112">
-        <v>3882</v>
+        <v>973</v>
       </c>
       <c r="K112">
-        <f>I112-J112</f>
-        <v>-2412</v>
-      </c>
-      <c r="L112">
-        <v>848</v>
+        <f t="shared" si="3"/>
+        <v>-125</v>
       </c>
       <c r="M112">
-        <v>973</v>
+        <v>790</v>
       </c>
       <c r="N112">
-        <f>L112-M112</f>
-        <v>-125</v>
-      </c>
-      <c r="O112">
-        <v>622</v>
+        <v>1838</v>
       </c>
       <c r="P112">
-        <v>2909</v>
-      </c>
-      <c r="R112">
-        <v>898</v>
-      </c>
-      <c r="S112">
-        <v>1875</v>
-      </c>
-      <c r="T112">
-        <v>790</v>
-      </c>
-      <c r="U112">
-        <v>1838</v>
-      </c>
-      <c r="V112">
-        <v>108</v>
-      </c>
-      <c r="W112">
-        <v>37</v>
-      </c>
-      <c r="Y112">
         <v>5656</v>
       </c>
-      <c r="Z112">
+      <c r="Q112">
         <v>55716</v>
       </c>
-      <c r="AA112" t="s">
+      <c r="R112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -11286,60 +8114,32 @@
         <v>6993</v>
       </c>
       <c r="I113">
-        <v>40273</v>
+        <v>5564</v>
       </c>
       <c r="J113">
-        <v>809971</v>
+        <v>6229</v>
       </c>
       <c r="K113">
-        <f>I113-J113</f>
-        <v>-769698</v>
-      </c>
-      <c r="L113">
-        <v>5564</v>
+        <f t="shared" si="3"/>
+        <v>-665</v>
       </c>
       <c r="M113">
-        <v>6229</v>
+        <v>5344</v>
       </c>
       <c r="N113">
-        <f>L113-M113</f>
-        <v>-665</v>
-      </c>
-      <c r="O113">
-        <v>34709</v>
+        <v>33635</v>
       </c>
       <c r="P113">
-        <v>803742</v>
-      </c>
-      <c r="R113">
-        <v>10759</v>
-      </c>
-      <c r="S113">
-        <v>34250</v>
-      </c>
-      <c r="T113">
-        <v>5344</v>
-      </c>
-      <c r="U113">
-        <v>33635</v>
-      </c>
-      <c r="V113">
-        <v>5415</v>
-      </c>
-      <c r="W113">
-        <v>615</v>
-      </c>
-      <c r="Y113">
         <v>431162</v>
       </c>
-      <c r="Z113">
+      <c r="Q113">
         <v>1587624</v>
       </c>
-      <c r="AA113" t="s">
+      <c r="R113" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -11365,60 +8165,32 @@
         <v>672</v>
       </c>
       <c r="I114">
-        <v>3753</v>
+        <v>1181</v>
       </c>
       <c r="J114">
-        <v>54620</v>
+        <v>1486</v>
       </c>
       <c r="K114">
-        <f>I114-J114</f>
-        <v>-50867</v>
-      </c>
-      <c r="L114">
-        <v>1181</v>
+        <f t="shared" si="3"/>
+        <v>-305</v>
       </c>
       <c r="M114">
-        <v>1486</v>
+        <v>1052</v>
       </c>
       <c r="N114">
-        <f>L114-M114</f>
-        <v>-305</v>
-      </c>
-      <c r="O114">
-        <v>2572</v>
+        <v>12492</v>
       </c>
       <c r="P114">
-        <v>53134</v>
-      </c>
-      <c r="R114">
-        <v>1601</v>
-      </c>
-      <c r="S114">
-        <v>12631</v>
-      </c>
-      <c r="T114">
-        <v>1052</v>
-      </c>
-      <c r="U114">
-        <v>12492</v>
-      </c>
-      <c r="V114">
-        <v>549</v>
-      </c>
-      <c r="W114">
-        <v>139</v>
-      </c>
-      <c r="Y114">
         <v>22874</v>
       </c>
-      <c r="Z114">
+      <c r="Q114">
         <v>626322</v>
       </c>
-      <c r="AA114" t="s">
+      <c r="R114" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11438,62 +8210,34 @@
         <v>8</v>
       </c>
       <c r="I115">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J115">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="K115">
-        <f>I115-J115</f>
-        <v>-86</v>
-      </c>
-      <c r="L115">
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>-40</v>
       </c>
       <c r="M115">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="N115">
-        <f>L115-M115</f>
-        <v>-40</v>
-      </c>
-      <c r="O115">
-        <v>8</v>
+        <v>1173</v>
       </c>
       <c r="P115">
-        <v>54</v>
-      </c>
-      <c r="R115">
-        <v>124</v>
-      </c>
-      <c r="S115">
-        <v>1174</v>
-      </c>
-      <c r="T115">
-        <v>123</v>
-      </c>
-      <c r="U115">
-        <v>1173</v>
-      </c>
-      <c r="V115">
-        <v>1</v>
-      </c>
-      <c r="W115">
-        <v>1</v>
-      </c>
-      <c r="Y115">
         <v>374</v>
       </c>
-      <c r="Z115">
+      <c r="Q115">
         <v>81681</v>
       </c>
-      <c r="AA115" t="s">
+      <c r="R115" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:AA115">
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:R115">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -11508,7 +8252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q115">
+  <conditionalFormatting sqref="L2:L115">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -11518,7 +8262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M115">
+  <conditionalFormatting sqref="I2:J115">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -11528,17 +8272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P115">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N115">
+  <conditionalFormatting sqref="K2:K115">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -11552,30 +8286,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K115">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{23839AE9-D6F1-493C-ABF5-19C74BFF64DA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J115">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -11583,19 +8293,6 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D72DCC81-F626-47A7-9E83-3BE42C6A5DCA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N2:N115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{23839AE9-D6F1-493C-ABF5-19C74BFF64DA}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
